--- a/backend/common/primary_data/小学名称中英文对照.xlsx
+++ b/backend/common/primary_data/小学名称中英文对照.xlsx
@@ -2495,7 +2495,7 @@
     <t>Good Hope Primary School cum Kindergarten</t>
   </si>
   <si>
-    <t>德望小学暨幼儿园</t>
+    <t>德望小学暨幼稚园</t>
   </si>
   <si>
     <t>德望小學暨幼稚園</t>
@@ -2729,7 +2729,7 @@
     <t>Delia English Primary School &amp; Kindergarten</t>
   </si>
   <si>
-    <t>地利亚英文小学暨幼儿园</t>
+    <t>地利亚英文小学暨幼稚园</t>
   </si>
   <si>
     <t>地利亞英文小學暨幼稚園</t>
@@ -2783,7 +2783,7 @@
     <t>Tsung Tsin Primary School And Kindergarten</t>
   </si>
   <si>
-    <t>崇真小学暨幼儿园</t>
+    <t>崇真小学暨幼稚园</t>
   </si>
   <si>
     <t>崇真小學暨幼稚園</t>
@@ -3899,7 +3899,7 @@
     <t>The True Light School of Hong Kong, Primary and Kindergarten Section</t>
   </si>
   <si>
-    <t>香港真光中学附属小学暨幼儿园</t>
+    <t>香港真光中学附属小学暨幼稚园</t>
   </si>
   <si>
     <t>香港真光中學附屬小學暨幼稚園</t>
@@ -9061,7 +9061,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="137692765"/>
+          <a:off x="0" y="137683240"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9102,7 +9102,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="138331575"/>
+          <a:off x="0" y="138322050"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9143,7 +9143,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="138777345"/>
+          <a:off x="0" y="138767820"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9184,7 +9184,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="138777345"/>
+          <a:off x="3154045" y="138767820"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9225,7 +9225,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="138777345"/>
+          <a:off x="6308090" y="138767820"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9266,7 +9266,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="138777345"/>
+          <a:off x="6308090" y="138767820"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9307,7 +9307,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="138777345"/>
+          <a:off x="6308090" y="138767820"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9348,7 +9348,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="141006195"/>
+          <a:off x="0" y="140996670"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9389,7 +9389,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="141897735"/>
+          <a:off x="0" y="141888210"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9430,7 +9430,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="143680815"/>
+          <a:off x="0" y="143671290"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9471,7 +9471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="144126585"/>
+          <a:off x="0" y="144117060"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9512,7 +9512,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="144572355"/>
+          <a:off x="0" y="144562830"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9553,7 +9553,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="147885785"/>
+          <a:off x="0" y="147876260"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9594,7 +9594,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="151199215"/>
+          <a:off x="0" y="151180165"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9635,7 +9635,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="152729565"/>
+          <a:off x="0" y="152700990"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9676,7 +9676,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="153175335"/>
+          <a:off x="0" y="153146760"/>
           <a:ext cx="406400" cy="425450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9717,7 +9717,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="153175335"/>
+          <a:off x="3154045" y="153146760"/>
           <a:ext cx="406400" cy="425450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9758,7 +9758,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="153175335"/>
+          <a:off x="6308090" y="153146760"/>
           <a:ext cx="406400" cy="425450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9799,7 +9799,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="153175335"/>
+          <a:off x="6308090" y="153146760"/>
           <a:ext cx="406400" cy="425450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9840,7 +9840,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="153175335"/>
+          <a:off x="6308090" y="153146760"/>
           <a:ext cx="406400" cy="425450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9881,7 +9881,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="154512645"/>
+          <a:off x="0" y="154484070"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9922,7 +9922,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="154958415"/>
+          <a:off x="0" y="154929840"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9963,7 +9963,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="155404185"/>
+          <a:off x="0" y="155375610"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10004,7 +10004,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="156042995"/>
+          <a:off x="0" y="156014420"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10045,7 +10045,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="159356425"/>
+          <a:off x="0" y="159327850"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10086,7 +10086,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="161585275"/>
+          <a:off x="0" y="161556700"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10127,7 +10127,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="163814125"/>
+          <a:off x="0" y="163785550"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10168,7 +10168,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="164259895"/>
+          <a:off x="0" y="164231320"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10209,7 +10209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="164705665"/>
+          <a:off x="0" y="164677090"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10250,7 +10250,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="165151435"/>
+          <a:off x="0" y="165122860"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10291,7 +10291,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="165597205"/>
+          <a:off x="3154045" y="165568630"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10332,7 +10332,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="165597205"/>
+          <a:off x="6308090" y="165568630"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10373,7 +10373,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="165597205"/>
+          <a:off x="6308090" y="165568630"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10414,7 +10414,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="165597205"/>
+          <a:off x="6308090" y="165568630"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10455,7 +10455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="165597205"/>
+          <a:off x="6308090" y="165568630"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10496,7 +10496,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171139485"/>
+          <a:off x="0" y="171110910"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10537,7 +10537,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171585255"/>
+          <a:off x="0" y="171556680"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10578,7 +10578,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="173115605"/>
+          <a:off x="0" y="173087030"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10619,7 +10619,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="180440965"/>
+          <a:off x="0" y="180412390"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10660,7 +10660,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="180886735"/>
+          <a:off x="0" y="180858160"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10701,7 +10701,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="181332505"/>
+          <a:off x="0" y="181303930"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10742,7 +10742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="181332505"/>
+          <a:off x="3154045" y="181303930"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10783,7 +10783,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="181332505"/>
+          <a:off x="6308090" y="181303930"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10824,7 +10824,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="181332505"/>
+          <a:off x="6308090" y="181303930"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10865,7 +10865,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="181332505"/>
+          <a:off x="6308090" y="181303930"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10906,7 +10906,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="181778275"/>
+          <a:off x="0" y="181749700"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10947,7 +10947,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="183754395"/>
+          <a:off x="0" y="183725820"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10988,7 +10988,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="186176285"/>
+          <a:off x="0" y="186147710"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11029,7 +11029,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="187067825"/>
+          <a:off x="0" y="187039250"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11070,7 +11070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="189296675"/>
+          <a:off x="0" y="189268100"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11111,7 +11111,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190633985"/>
+          <a:off x="0" y="190605410"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11152,7 +11152,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="191079755"/>
+          <a:off x="0" y="191051180"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11193,7 +11193,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="194393185"/>
+          <a:off x="0" y="194364610"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11234,7 +11234,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="194838955"/>
+          <a:off x="0" y="194810380"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11275,7 +11275,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="196176265"/>
+          <a:off x="0" y="196147690"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11316,7 +11316,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="196622035"/>
+          <a:off x="0" y="196593460"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11357,7 +11357,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="197067805"/>
+          <a:off x="0" y="197039230"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11398,7 +11398,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="198405115"/>
+          <a:off x="0" y="198376540"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11439,7 +11439,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="198850885"/>
+          <a:off x="0" y="198822310"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11480,7 +11480,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="199742425"/>
+          <a:off x="0" y="199713850"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11521,7 +11521,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="200188195"/>
+          <a:off x="0" y="200159620"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11562,7 +11562,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="201079735"/>
+          <a:off x="0" y="201051160"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11603,7 +11603,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="201525505"/>
+          <a:off x="0" y="201496930"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11644,7 +11644,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="202417045"/>
+          <a:off x="0" y="202388470"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11685,7 +11685,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="202417045"/>
+          <a:off x="3154045" y="202388470"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11726,7 +11726,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="202417045"/>
+          <a:off x="6308090" y="202388470"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11767,7 +11767,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="202417045"/>
+          <a:off x="6308090" y="202388470"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11808,7 +11808,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="202417045"/>
+          <a:off x="6308090" y="202388470"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11849,7 +11849,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="202417045"/>
+          <a:off x="0" y="202388470"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11890,7 +11890,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="202862815"/>
+          <a:off x="0" y="202834240"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11931,7 +11931,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="203308585"/>
+          <a:off x="0" y="203280010"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11972,7 +11972,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="204393165"/>
+          <a:off x="0" y="204364590"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12013,7 +12013,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="206369285"/>
+          <a:off x="0" y="206340710"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12054,7 +12054,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="207260825"/>
+          <a:off x="0" y="207232250"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12095,7 +12095,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="207706595"/>
+          <a:off x="0" y="207678020"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12136,7 +12136,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="208152365"/>
+          <a:off x="0" y="208123790"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12177,7 +12177,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="209043905"/>
+          <a:off x="0" y="209015330"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12218,7 +12218,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="209682715"/>
+          <a:off x="0" y="209654140"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12259,7 +12259,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="210128485"/>
+          <a:off x="0" y="210099910"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12300,7 +12300,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="210574255"/>
+          <a:off x="0" y="210545680"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12341,7 +12341,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="211213065"/>
+          <a:off x="0" y="211174965"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12382,7 +12382,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="211213065"/>
+          <a:off x="3154045" y="211174965"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12423,7 +12423,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="211213065"/>
+          <a:off x="6308090" y="211174965"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12464,7 +12464,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="211213065"/>
+          <a:off x="6308090" y="211174965"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12505,7 +12505,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="211213065"/>
+          <a:off x="6308090" y="211174965"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12546,7 +12546,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="211213065"/>
+          <a:off x="0" y="211174965"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12587,7 +12587,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="212104605"/>
+          <a:off x="0" y="212066505"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12628,7 +12628,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="213189185"/>
+          <a:off x="0" y="213151085"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12669,7 +12669,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="214526495"/>
+          <a:off x="0" y="214488395"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12710,7 +12710,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="215863805"/>
+          <a:off x="0" y="215825705"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12751,7 +12751,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="216309575"/>
+          <a:off x="0" y="216271475"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12792,7 +12792,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="216755345"/>
+          <a:off x="0" y="216717245"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12833,7 +12833,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="217201115"/>
+          <a:off x="0" y="217163015"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12874,7 +12874,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="217201115"/>
+          <a:off x="3154045" y="217163015"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12915,7 +12915,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="217201115"/>
+          <a:off x="6308090" y="217163015"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12956,7 +12956,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="217201115"/>
+          <a:off x="6308090" y="217163015"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12997,7 +12997,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="217201115"/>
+          <a:off x="6308090" y="217163015"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13038,7 +13038,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="220321505"/>
+          <a:off x="0" y="220283405"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13079,7 +13079,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="220767275"/>
+          <a:off x="0" y="220729175"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13120,7 +13120,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="221406085"/>
+          <a:off x="0" y="221367985"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13161,7 +13161,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="223189165"/>
+          <a:off x="0" y="223151065"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13202,7 +13202,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="224526475"/>
+          <a:off x="0" y="224488375"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13243,7 +13243,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="224526475"/>
+          <a:off x="3154045" y="224488375"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13284,7 +13284,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="224526475"/>
+          <a:off x="6308090" y="224488375"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13325,7 +13325,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="224526475"/>
+          <a:off x="6308090" y="224488375"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13366,7 +13366,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="224526475"/>
+          <a:off x="6308090" y="224488375"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13407,7 +13407,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="224972245"/>
+          <a:off x="0" y="224934145"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13448,7 +13448,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="226755325"/>
+          <a:off x="0" y="226717225"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13489,7 +13489,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="227646865"/>
+          <a:off x="0" y="227608765"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13530,7 +13530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="228092635"/>
+          <a:off x="0" y="228054535"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13571,7 +13571,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="229429945"/>
+          <a:off x="0" y="229391845"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13612,7 +13612,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="231658795"/>
+          <a:off x="0" y="231620695"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13653,7 +13653,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="232104565"/>
+          <a:off x="0" y="232066465"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13694,7 +13694,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="235863765"/>
+          <a:off x="0" y="235825665"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13735,7 +13735,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="236309535"/>
+          <a:off x="0" y="236271435"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13776,7 +13776,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="237201075"/>
+          <a:off x="0" y="237162975"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13817,7 +13817,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="237201075"/>
+          <a:off x="3154045" y="237162975"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13858,7 +13858,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="237201075"/>
+          <a:off x="6308090" y="237162975"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13899,7 +13899,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="237201075"/>
+          <a:off x="6308090" y="237162975"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13940,7 +13940,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="237201075"/>
+          <a:off x="6308090" y="237162975"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13981,7 +13981,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="237201075"/>
+          <a:off x="0" y="237162975"/>
           <a:ext cx="406400" cy="426085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14022,7 +14022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="240068735"/>
+          <a:off x="0" y="240030635"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14063,7 +14063,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="240514505"/>
+          <a:off x="0" y="240476405"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14104,7 +14104,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="240960275"/>
+          <a:off x="0" y="240922175"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14145,7 +14145,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="244080665"/>
+          <a:off x="0" y="244042565"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14186,7 +14186,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="244526435"/>
+          <a:off x="0" y="244488335"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14227,7 +14227,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="244972205"/>
+          <a:off x="0" y="244934105"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14268,7 +14268,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="245417975"/>
+          <a:off x="0" y="245379875"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14309,7 +14309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="245863745"/>
+          <a:off x="0" y="245825645"/>
           <a:ext cx="406400" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14578,8 +14578,8 @@
   <sheetPr/>
   <dimension ref="A1:C1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="I604" sqref="I604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -19033,7 +19033,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="556" ht="17.55" spans="1:2">
+    <row r="556" spans="1:2">
       <c r="A556" s="9" t="s">
         <v>822</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="608" ht="17.55" spans="1:2">
+    <row r="608" spans="1:2">
       <c r="A608" s="9" t="s">
         <v>900</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="620" ht="17.55" spans="1:2">
+    <row r="620" spans="1:2">
       <c r="A620" s="9" t="s">
         <v>918</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="872" ht="17.55" spans="1:2">
+    <row r="872" spans="1:2">
       <c r="A872" s="11" t="s">
         <v>1290</v>
       </c>
@@ -23413,7 +23413,6 @@
     <hyperlink ref="B605" r:id="rId303" display="Chan's Creative School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=277&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="B606" r:id="rId303" display="啟基學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=277&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="B607" r:id="rId304" display="Delia English Primary School &amp; Kindergarten" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=278&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
-    <hyperlink ref="B608" r:id="rId304" display="地利亞英文小學暨幼稚園" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=278&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="B609" r:id="rId305" display="Kowloon Rhenish School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=279&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="B610" r:id="rId305" display="九龍禮賢學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=279&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="B611" r:id="rId306" display="Lingnan University Alumni Association (Hong Kong) Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=286&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
@@ -24385,7 +24384,7 @@
     <hyperlink ref="A553" r:id="rId277" display="Price Memorial Catholic Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=433&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=10&amp;sort_id=-1"/>
     <hyperlink ref="A554" r:id="rId277" display="天主教博智小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=433&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=10&amp;sort_id=-1"/>
     <hyperlink ref="A555" r:id="rId278" display="Good Hope Primary School cum Kindergarten" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=443&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=10&amp;sort_id=-1"/>
-    <hyperlink ref="A556" r:id="rId278" display="德望小学暨幼儿园" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=443&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=10&amp;sort_id=-1"/>
+    <hyperlink ref="A556" r:id="rId278" display="德望小学暨幼稚园" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=443&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=10&amp;sort_id=-1"/>
     <hyperlink ref="A557" r:id="rId279" display="International Christian Quality Music Sec. and Pri. School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=454&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=10&amp;sort_id=-1"/>
     <hyperlink ref="A558" r:id="rId279" display="国际基督教优质音乐中学暨小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=454&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=10&amp;sort_id=-1"/>
     <hyperlink ref="A559" r:id="rId280" display="Our Lady's Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=455&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=10&amp;sort_id=-1"/>
@@ -24437,7 +24436,7 @@
     <hyperlink ref="A605" r:id="rId303" display="Chan's Creative School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=277&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A606" r:id="rId303" display="启基学校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=277&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A607" r:id="rId304" display="Delia English Primary School &amp; Kindergarten" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=278&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
-    <hyperlink ref="A608" r:id="rId304" display="地利亚英文小学暨幼儿园" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=278&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
+    <hyperlink ref="A608" r:id="rId304" display="地利亚英文小学暨幼稚园" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=278&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A609" r:id="rId305" display="Kowloon Rhenish School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=279&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A610" r:id="rId305" display="九龙礼贤学校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=279&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A611" r:id="rId306" display="Lingnan University Alumni Association (Hong Kong) Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=286&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
@@ -24449,7 +24448,7 @@
     <hyperlink ref="A617" r:id="rId309" display="Tak Nga Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=282&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A618" r:id="rId309" display="德雅小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=282&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A619" r:id="rId310" display="Tsung Tsin Primary School And Kindergarten" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=283&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
-    <hyperlink ref="A620" r:id="rId310" display="崇真小学暨幼儿园" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=283&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
+    <hyperlink ref="A620" r:id="rId310" display="崇真小学暨幼稚园" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=283&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A621" r:id="rId311" display="Ying Wa Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=276&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A622" r:id="rId311" display="英华小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=276&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A623" r:id="rId312" display="Assembly of God Leung Sing Tak Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=213&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
@@ -24701,7 +24700,7 @@
     <hyperlink ref="A869" r:id="rId435" display="St. Paul's Convent School (Primary Section)" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=425&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=5&amp;sort_id=-1"/>
     <hyperlink ref="A870" r:id="rId435" display="圣保禄学校（小学部）" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=425&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=5&amp;sort_id=-1"/>
     <hyperlink ref="A871" r:id="rId436" display="The True Light School of Hong Kong, Primary and Kindergarten Section" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=420&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=5&amp;sort_id=-1"/>
-    <hyperlink ref="A872" r:id="rId436" display="香港真光中学附属小学暨幼儿园" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=420&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=5&amp;sort_id=-1"/>
+    <hyperlink ref="A872" r:id="rId436" display="香港真光中学附属小学暨幼稚园" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=420&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=5&amp;sort_id=-1"/>
     <hyperlink ref="A873" r:id="rId437" display="Aberdeen St. Peter's Catholic Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=254&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=4&amp;sort_id=-1"/>
     <hyperlink ref="A874" r:id="rId437" display="香港仔圣伯多禄天主教小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=254&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=4&amp;sort_id=-1"/>
     <hyperlink ref="A875" r:id="rId438" display="Aplichau Kaifong Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=240&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=4&amp;sort_id=-1"/>
@@ -24855,6 +24854,7 @@
     <hyperlink ref="A1023" r:id="rId512" display="St. Clare's Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=23&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
     <hyperlink ref="A1024" r:id="rId512" display="圣嘉勒小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=23&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
     <hyperlink ref="A1025" r:id="rId513" display="St. Louis School (Primary Section)" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=18&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
+    <hyperlink ref="B608" r:id="rId304" display="地利亞英文小學暨幼稚園" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=278&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
     <hyperlink ref="A1026" r:id="rId513" display="圣类斯中学（小学部）" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=18&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/common/primary_data/小学名称中英文对照.xlsx
+++ b/backend/common/primary_data/小学名称中英文对照.xlsx
@@ -176,7 +176,7 @@
     <t>台山商会学校</t>
   </si>
   <si>
-    <t>台山商會學校</t>
+    <t>臺山商會學校</t>
   </si>
   <si>
     <t>Tuen Mun Government Primary School</t>
@@ -401,7 +401,7 @@
     <t>金巴仑长老会耀道小学</t>
   </si>
   <si>
-    <t>金巴崙長老會耀道小學</t>
+    <t>金巴侖長老會耀道小學</t>
   </si>
   <si>
     <t>HKFYG Lee Shau Kee Primary School</t>
@@ -788,7 +788,7 @@
     <t>激活英文小学</t>
   </si>
   <si>
-    <t>激活英文小學</t>
+    <t>啟動英文小學</t>
   </si>
   <si>
     <t>W F Joseph Lee Primary School</t>
@@ -1526,7 +1526,7 @@
     <t>保良局王赐豪（田心谷）小学</t>
   </si>
   <si>
-    <t>保良局王賜豪（田心谷）小學</t>
+    <t>保良局王賜豪（田心穀）小學</t>
   </si>
   <si>
     <t>Shatin Government Primary School</t>
@@ -1553,7 +1553,7 @@
     <t>香港九龙塘基督教中华宣道会台山陈元喜小学</t>
   </si>
   <si>
-    <t>香港九龍塘基督教中華宣道會台山陳元喜小學</t>
+    <t>香港九龍塘基督教中華宣道會臺山陳元喜小學</t>
   </si>
   <si>
     <t>ELCHK Ma On Shan Lutheran Primary School</t>
@@ -1688,7 +1688,7 @@
     <t>路德会梁巨鏐小学</t>
   </si>
   <si>
-    <t>路德會梁鉅鏐小學</t>
+    <t>路德會梁巨鏐小學</t>
   </si>
   <si>
     <t>L.K.W.F.S.L. Wong Yiu Nam Primary School</t>
@@ -2021,7 +2021,7 @@
     <t>五旬节于良发小学</t>
   </si>
   <si>
-    <t>五旬節于良發小學</t>
+    <t>五旬節於良發小學</t>
   </si>
   <si>
     <t>Pui Ling School of The Precious Blood</t>
@@ -2210,7 +2210,7 @@
     <t>路德会沙仑学校</t>
   </si>
   <si>
-    <t>路德會沙崙學校</t>
+    <t>路德會沙侖學校</t>
   </si>
   <si>
     <t>S.K.H. Kei Wing Primary School</t>
@@ -2984,7 +2984,7 @@
     <t>东华三院王余家洁纪念小学</t>
   </si>
   <si>
-    <t>東華三院王余家潔紀念小學</t>
+    <t>東華三院王餘家潔紀念小學</t>
   </si>
   <si>
     <t>Y.C.H. Chan Iu Seng Primary School</t>
@@ -3092,7 +3092,7 @@
     <t>佐敦谷圣若瑟天主教小学</t>
   </si>
   <si>
-    <t>佐敦谷聖若瑟天主教小學</t>
+    <t>佐敦穀聖若瑟天主教小學</t>
   </si>
   <si>
     <t>Kowloon Bay St. John The Baptist Catholic Primary School</t>
@@ -3434,7 +3434,7 @@
     <t>马头涌官立小学</t>
   </si>
   <si>
-    <t>馬頭涌官立小學</t>
+    <t>馬頭湧官立小學</t>
   </si>
   <si>
     <t>Oblate Primary School</t>
@@ -3533,7 +3533,7 @@
     <t>马头涌官立小学（红磡湾）</t>
   </si>
   <si>
-    <t>馬頭涌官立小學（紅磡灣）</t>
+    <t>馬頭湧官立小學（紅磡灣）</t>
   </si>
   <si>
     <t>S.K.H. Fung Kei Millennium Primary School</t>
@@ -4127,7 +4127,7 @@
     <t>宝安商会温浩根小学</t>
   </si>
   <si>
-    <t>寶安商會温浩根小學</t>
+    <t>寶安商會溫浩根小學</t>
   </si>
   <si>
     <t>The Salvation Army Lam Butt Chung Memorial School</t>
@@ -4145,7 +4145,7 @@
     <t>东涌天主教学校</t>
   </si>
   <si>
-    <t>東涌天主教學校</t>
+    <t>東湧天主教學校</t>
   </si>
   <si>
     <t>Holy Family School</t>
@@ -4424,7 +4424,7 @@
     <t>般咸道官立小学</t>
   </si>
   <si>
-    <t>般咸道官立小學</t>
+    <t>般鹹道官立小學</t>
   </si>
   <si>
     <t>Catholic Mission School</t>
@@ -5317,7 +5317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5341,6 +5341,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7585,7 +7588,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="65271015"/>
+          <a:off x="0" y="65299590"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7626,7 +7629,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="67945635"/>
+          <a:off x="0" y="67974210"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7667,7 +7670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="68391405"/>
+          <a:off x="0" y="68419980"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7691,8 +7694,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7708,8 +7711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="75077955"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="75106530"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7732,8 +7735,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7749,8 +7752,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="75077955"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="75106530"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7773,8 +7776,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7790,8 +7793,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="75077955"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="75106530"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7814,8 +7817,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7831,8 +7834,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="75077955"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="75106530"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7855,8 +7858,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7872,8 +7875,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="75077955"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="75106530"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7896,8 +7899,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7913,8 +7916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="75077955"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="75106530"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7938,7 +7941,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>307</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7954,8 +7957,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="80427195"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="80455770"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7979,7 +7982,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>333</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7995,8 +7998,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="86801325"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="86829900"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8020,7 +8023,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>335</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8036,8 +8039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="87247095"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="87275670"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8061,7 +8064,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>341</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8077,8 +8080,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="88970485"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="88999060"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8102,7 +8105,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>367</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8118,8 +8121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="94765495"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="94794070"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8143,7 +8146,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>369</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8159,8 +8162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="95211265"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="95239840"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8184,7 +8187,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>387</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8200,8 +8203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="99223195"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="99251770"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8225,7 +8228,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>391</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8241,8 +8244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="100114735"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="100143310"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8266,7 +8269,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>401</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8282,8 +8285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="102343585"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="102372160"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8307,7 +8310,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>403</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8323,8 +8326,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="102789355"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="102817930"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8348,7 +8351,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>437</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8364,8 +8367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="110367445"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="110396020"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8388,8 +8391,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>467</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>468</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8405,8 +8408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="117247035"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="117275610"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8430,7 +8433,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>471</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8446,8 +8449,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="118138575"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="118167150"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8471,7 +8474,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>473</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8487,8 +8490,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="118584345"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="118612920"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8512,7 +8515,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>499</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8528,8 +8531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="124379355"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="124407930"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8553,7 +8556,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>503</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8569,8 +8572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="125463935"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="125492510"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8593,8 +8596,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>507</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8610,8 +8613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="126355475"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="126384050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8634,8 +8637,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>507</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8651,8 +8654,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="126355475"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="126384050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8675,8 +8678,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>507</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8692,8 +8695,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="126355475"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="126384050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8716,8 +8719,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>507</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8733,8 +8736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="126355475"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="126384050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8757,8 +8760,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>507</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8774,8 +8777,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="126355475"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="126384050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8799,7 +8802,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>513</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8815,8 +8818,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="127692785"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="127721360"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8840,7 +8843,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>515</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8856,8 +8859,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="128138555"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="128167130"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8881,7 +8884,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>523</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8897,8 +8900,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="129921635"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="129950210"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8922,7 +8925,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>537</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8938,8 +8941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="133042025"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="133070600"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8963,7 +8966,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>539</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8979,8 +8982,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="133487795"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="133516370"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9004,7 +9007,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>547</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9020,8 +9023,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="135463915"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="135492490"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9061,7 +9064,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="137683240"/>
+          <a:off x="0" y="137721340"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9086,7 +9089,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>559</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9102,8 +9105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="138322050"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="138360150"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9126,8 +9129,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>561</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9143,8 +9146,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="138767820"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="138805920"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9167,8 +9170,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>561</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9184,8 +9187,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="138767820"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="138805920"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9208,8 +9211,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>561</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9225,8 +9228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="138767820"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="138805920"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9249,8 +9252,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>561</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9266,8 +9269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="138767820"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="138805920"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9290,8 +9293,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>561</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9307,8 +9310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="138767820"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="138805920"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9332,7 +9335,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>571</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9348,8 +9351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="140996670"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="141034770"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9373,7 +9376,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>575</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9389,8 +9392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="141888210"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="141926310"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9414,7 +9417,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>583</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9430,8 +9433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="143671290"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="143709390"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9455,7 +9458,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>585</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9471,8 +9474,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="144117060"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="144155160"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9496,7 +9499,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>587</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9512,8 +9515,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="144562830"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="144600930"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9537,7 +9540,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>601</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9553,8 +9556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="147876260"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="147914360"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9594,7 +9597,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="151180165"/>
+          <a:off x="0" y="151227790"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9619,7 +9622,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>621</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9635,8 +9638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="152700990"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="152758140"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9659,8 +9662,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>623</xdr:row>
-      <xdr:rowOff>202565</xdr:rowOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9676,8 +9679,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="153146760"/>
-          <a:ext cx="406400" cy="425450"/>
+          <a:off x="0" y="153203910"/>
+          <a:ext cx="406400" cy="454025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9700,8 +9703,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>623</xdr:row>
-      <xdr:rowOff>202565</xdr:rowOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9717,8 +9720,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="153146760"/>
-          <a:ext cx="406400" cy="425450"/>
+          <a:off x="3154045" y="153203910"/>
+          <a:ext cx="406400" cy="454025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9741,8 +9744,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>623</xdr:row>
-      <xdr:rowOff>202565</xdr:rowOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9758,8 +9761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="153146760"/>
-          <a:ext cx="406400" cy="425450"/>
+          <a:off x="6308090" y="153203910"/>
+          <a:ext cx="406400" cy="454025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9782,8 +9785,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>623</xdr:row>
-      <xdr:rowOff>202565</xdr:rowOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9799,8 +9802,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="153146760"/>
-          <a:ext cx="406400" cy="425450"/>
+          <a:off x="6308090" y="153203910"/>
+          <a:ext cx="406400" cy="454025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9823,8 +9826,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>623</xdr:row>
-      <xdr:rowOff>202565</xdr:rowOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9840,8 +9843,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="153146760"/>
-          <a:ext cx="406400" cy="425450"/>
+          <a:off x="6308090" y="153203910"/>
+          <a:ext cx="406400" cy="454025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9865,7 +9868,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>629</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9881,8 +9884,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="154484070"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="154541220"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9906,7 +9909,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>631</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9922,8 +9925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="154929840"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="154986990"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9963,7 +9966,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="155375610"/>
+          <a:off x="0" y="155432760"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10004,7 +10007,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="156014420"/>
+          <a:off x="0" y="156071570"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10029,7 +10032,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>649</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10045,8 +10048,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="159327850"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="159385000"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10070,7 +10073,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>659</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10086,8 +10089,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="161556700"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="161613850"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10111,7 +10114,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>669</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10127,8 +10130,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="163785550"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="163842700"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10152,7 +10155,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>671</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10168,8 +10171,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="164231320"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="164288470"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10193,7 +10196,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>673</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10209,8 +10212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="164677090"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="164734240"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10234,7 +10237,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>675</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10250,8 +10253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="165122860"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="165180010"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10274,8 +10277,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>677</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>678</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10291,8 +10294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="165568630"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="165625780"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10315,8 +10318,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>677</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>678</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10332,8 +10335,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="165568630"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="165625780"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10356,8 +10359,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>677</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>678</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10373,8 +10376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="165568630"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="165625780"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10397,8 +10400,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>677</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>678</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10414,8 +10417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="165568630"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="165625780"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10438,8 +10441,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>677</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>678</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10455,8 +10458,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="165568630"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="165625780"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10480,7 +10483,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>701</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10496,8 +10499,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171110910"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="171168060"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10537,7 +10540,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171556680"/>
+          <a:off x="0" y="171613830"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10562,7 +10565,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>709</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10578,8 +10581,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="173087030"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="173144180"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10603,7 +10606,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>741</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10619,8 +10622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="180412390"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="180469540"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10644,7 +10647,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>743</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10660,8 +10663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="180858160"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="180915310"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10684,8 +10687,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>745</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10701,8 +10704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="181303930"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="181361080"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10725,8 +10728,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>745</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10742,8 +10745,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="181303930"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="181361080"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10766,8 +10769,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>745</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10783,8 +10786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="181303930"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="181361080"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10807,8 +10810,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>745</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10824,8 +10827,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="181303930"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="181361080"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10848,8 +10851,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>745</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10865,8 +10868,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="181303930"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="181361080"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10906,7 +10909,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="181749700"/>
+          <a:off x="0" y="181806850"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10931,7 +10934,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>755</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10947,8 +10950,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="183725820"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="183782970"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10972,7 +10975,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>765</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10988,8 +10991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="186147710"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="186204860"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11013,7 +11016,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>769</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11029,8 +11032,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="187039250"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="187096400"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11054,7 +11057,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>779</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11070,8 +11073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="189268100"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="189325250"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11095,7 +11098,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>785</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11111,8 +11114,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190605410"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="190662560"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11152,7 +11155,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="191051180"/>
+          <a:off x="0" y="191108330"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11177,7 +11180,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>801</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11193,8 +11196,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="194364610"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="194421760"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11218,7 +11221,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>803</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11234,8 +11237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="194810380"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="194867530"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11259,7 +11262,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>809</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11275,8 +11278,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="196147690"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="196204840"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11300,7 +11303,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>811</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11316,8 +11319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="196593460"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="196650610"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11341,7 +11344,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>813</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11357,8 +11360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="197039230"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="197096380"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11382,7 +11385,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>819</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11398,8 +11401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="198376540"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="198433690"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11423,7 +11426,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>821</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11439,8 +11442,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="198822310"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="198879460"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11464,7 +11467,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>825</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11480,8 +11483,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="199713850"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="199771000"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11505,7 +11508,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>827</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11521,8 +11524,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="200159620"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="200216770"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11546,7 +11549,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>831</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11562,8 +11565,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="201051160"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="201108310"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11587,7 +11590,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>833</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11603,8 +11606,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="201496930"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="201554080"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11627,8 +11630,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>837</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11644,8 +11647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="202388470"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="202445620"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11668,8 +11671,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>837</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11685,8 +11688,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="202388470"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="202445620"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11709,8 +11712,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>837</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11726,8 +11729,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="202388470"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="202445620"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11750,8 +11753,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>837</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11767,8 +11770,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="202388470"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="202445620"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11791,8 +11794,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>837</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11808,8 +11811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="202388470"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="202445620"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11832,8 +11835,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>837</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11849,8 +11852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="202388470"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="202445620"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11873,8 +11876,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>839</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>840</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11890,8 +11893,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="202834240"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="202891390"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11931,7 +11934,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="203280010"/>
+          <a:off x="0" y="203337160"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11956,7 +11959,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>845</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11972,8 +11975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="204364590"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="204421740"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11997,7 +12000,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>853</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12013,8 +12016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="206340710"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="206397860"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12038,7 +12041,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>857</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12054,8 +12057,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="207232250"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="207289400"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12079,7 +12082,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>859</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12095,8 +12098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="207678020"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="207735170"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12120,7 +12123,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>861</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12136,8 +12139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="208123790"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="208180940"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12177,7 +12180,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="209015330"/>
+          <a:off x="0" y="209072480"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12202,7 +12205,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>867</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12218,8 +12221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="209654140"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="209711290"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12243,7 +12246,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>869</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12259,8 +12262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="210099910"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="210157060"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12300,7 +12303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="210545680"/>
+          <a:off x="0" y="210602830"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12324,8 +12327,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>873</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12341,8 +12344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="211174965"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="211241640"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12365,8 +12368,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>873</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12382,8 +12385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="211174965"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="211241640"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12406,8 +12409,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>873</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12423,8 +12426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="211174965"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="211241640"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12447,8 +12450,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>873</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12464,8 +12467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="211174965"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="211241640"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12488,8 +12491,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>873</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12505,8 +12508,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="211174965"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="211241640"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12529,8 +12532,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>873</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12546,8 +12549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="211174965"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="211241640"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12587,7 +12590,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="212066505"/>
+          <a:off x="0" y="212133180"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12612,7 +12615,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>881</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12628,8 +12631,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="213151085"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="213217760"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12653,7 +12656,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>887</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12669,8 +12672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="214488395"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="214555070"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12694,7 +12697,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>893</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12710,8 +12713,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="215825705"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="215892380"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12735,7 +12738,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>895</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12751,8 +12754,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="216271475"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="216338150"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12776,7 +12779,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>897</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12792,8 +12795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="216717245"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="216783920"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12816,8 +12819,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>899</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>900</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12833,8 +12836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="217163015"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="217229690"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12857,8 +12860,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>899</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>900</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12874,8 +12877,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="217163015"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="217229690"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12898,8 +12901,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>899</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>900</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12915,8 +12918,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="217163015"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="217229690"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12939,8 +12942,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>899</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>900</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12956,8 +12959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="217163015"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="217229690"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12980,8 +12983,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>899</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>900</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12997,8 +13000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="217163015"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="217229690"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13022,7 +13025,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>913</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13038,8 +13041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="220283405"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="220350080"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13079,7 +13082,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="220729175"/>
+          <a:off x="0" y="220795850"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13104,7 +13107,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>917</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13120,8 +13123,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="221367985"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="221434660"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13145,7 +13148,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>925</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13161,8 +13164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="223151065"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="223217740"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13185,8 +13188,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>931</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>932</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13202,8 +13205,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="224488375"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="224555050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13226,8 +13229,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>931</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>932</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13243,8 +13246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="224488375"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="224555050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13267,8 +13270,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>931</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>932</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13284,8 +13287,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="224488375"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="224555050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13308,8 +13311,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>931</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>932</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13325,8 +13328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="224488375"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="224555050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13349,8 +13352,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>931</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>932</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13366,8 +13369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="224488375"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="224555050"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13390,8 +13393,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>933</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>934</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13407,8 +13410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="224934145"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="225000820"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13432,7 +13435,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>941</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13448,8 +13451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="226717225"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="226783900"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13473,7 +13476,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>945</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13489,8 +13492,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="227608765"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="227675440"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13514,7 +13517,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>947</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13530,8 +13533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="228054535"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="228121210"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13555,7 +13558,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>953</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13571,8 +13574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="229391845"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="229458520"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13596,7 +13599,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>963</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13612,8 +13615,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="231620695"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="231687370"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13637,7 +13640,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>965</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13653,8 +13656,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="232066465"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="232133140"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13678,7 +13681,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>981</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13694,8 +13697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="235825665"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="235892340"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13719,7 +13722,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>983</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13735,8 +13738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="236271435"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="236338110"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13759,8 +13762,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>987</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>988</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13776,8 +13779,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="237162975"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="237229650"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13800,8 +13803,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>987</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>988</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13817,8 +13820,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3154045" y="237162975"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="3154045" y="237229650"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13841,8 +13844,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>987</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>988</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13858,8 +13861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="237162975"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="237229650"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13882,8 +13885,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>987</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>988</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13899,8 +13902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="237162975"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="237229650"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13923,8 +13926,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>987</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>988</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13940,8 +13943,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308090" y="237162975"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="6308090" y="237229650"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13964,8 +13967,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>987</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>988</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13981,8 +13984,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="237162975"/>
-          <a:ext cx="406400" cy="426085"/>
+          <a:off x="0" y="237229650"/>
+          <a:ext cx="406400" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14006,7 +14009,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>999</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14022,8 +14025,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="240030635"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="240097310"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14047,7 +14050,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>1001</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14063,8 +14066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="240476405"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="240543080"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14088,7 +14091,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>1003</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14104,8 +14107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="240922175"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="240988850"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14129,7 +14132,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>1017</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14145,8 +14148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="244042565"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="244109240"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14170,7 +14173,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>1019</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14186,8 +14189,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="244488335"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="244555010"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14211,7 +14214,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>1021</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14227,8 +14230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="244934105"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="245000780"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14252,7 +14255,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>1023</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14268,8 +14271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="245379875"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="245446550"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14293,7 +14296,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>1025</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14309,8 +14312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="245825645"/>
-          <a:ext cx="406400" cy="415925"/>
+          <a:off x="0" y="245892320"/>
+          <a:ext cx="406400" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14578,8 +14581,8 @@
   <sheetPr/>
   <dimension ref="A1:C1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="I604" sqref="I604"/>
+    <sheetView tabSelected="1" topLeftCell="A971" workbookViewId="0">
+      <selection activeCell="B986" sqref="B986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -16305,7 +16308,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" ht="17.55" spans="1:3">
       <c r="A216" s="4" t="s">
         <v>321</v>
       </c>
@@ -16322,7 +16325,7 @@
       </c>
       <c r="C217" s="5"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" ht="17.55" spans="1:3">
       <c r="A218" s="4" t="s">
         <v>315</v>
       </c>
@@ -16339,7 +16342,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" ht="17.55" spans="1:3">
       <c r="A220" s="4" t="s">
         <v>318</v>
       </c>
@@ -17590,7 +17593,7 @@
       </c>
     </row>
     <row r="376" ht="17.55" spans="1:2">
-      <c r="A376" s="7" t="s">
+      <c r="A376" s="8" t="s">
         <v>552</v>
       </c>
       <c r="B376" s="7" t="s">
@@ -18304,4500 +18307,4500 @@
       </c>
     </row>
     <row r="465" ht="17.55" spans="1:3">
-      <c r="A465" s="8" t="s">
+      <c r="A465" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="B465" s="8" t="s">
+      <c r="B465" s="9" t="s">
         <v>686</v>
       </c>
       <c r="C465" s="5"/>
     </row>
     <row r="466" ht="17.55" spans="1:3">
-      <c r="A466" s="9" t="s">
+      <c r="A466" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="10" t="s">
         <v>688</v>
       </c>
       <c r="C466" s="5"/>
     </row>
     <row r="467" ht="17.55" spans="1:3">
-      <c r="A467" s="8" t="s">
+      <c r="A467" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B467" s="8" t="s">
+      <c r="B467" s="9" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="468" ht="17.55" spans="1:3">
-      <c r="A468" s="9" t="s">
+      <c r="A468" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="10" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="469" ht="17.55" spans="1:3">
-      <c r="A469" s="8" t="s">
+      <c r="A469" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="B469" s="8" t="s">
+      <c r="B469" s="9" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="470" ht="17.55" spans="1:3">
-      <c r="A470" s="9" t="s">
+      <c r="A470" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" s="10" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="471" ht="17.55" spans="1:3">
-      <c r="A471" s="8" t="s">
+      <c r="A471" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="B471" s="8" t="s">
+      <c r="B471" s="9" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="472" ht="17.55" spans="1:3">
-      <c r="A472" s="9" t="s">
+      <c r="A472" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="10" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="473" ht="17.55" spans="1:3">
-      <c r="A473" s="8" t="s">
+      <c r="A473" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B473" s="8" t="s">
+      <c r="B473" s="9" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="474" ht="17.55" spans="1:3">
-      <c r="A474" s="9" t="s">
+      <c r="A474" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" s="10" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="475" ht="17.55" spans="1:3">
-      <c r="A475" s="8" t="s">
+      <c r="A475" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="B475" s="8" t="s">
+      <c r="B475" s="9" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="476" ht="17.55" spans="1:3">
-      <c r="A476" s="9" t="s">
+      <c r="A476" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="10" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="477" ht="17.55" spans="1:3">
-      <c r="A477" s="8" t="s">
+      <c r="A477" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="B477" s="8" t="s">
+      <c r="B477" s="9" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="478" ht="17.55" spans="1:3">
-      <c r="A478" s="9" t="s">
+      <c r="A478" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="10" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="479" ht="17.55" spans="1:3">
-      <c r="A479" s="8" t="s">
+      <c r="A479" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="B479" s="8" t="s">
+      <c r="B479" s="9" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="480" ht="17.55" spans="1:3">
-      <c r="A480" s="9" t="s">
+      <c r="A480" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="10" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="481" ht="17.55" spans="1:2">
-      <c r="A481" s="8" t="s">
+      <c r="A481" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="B481" s="8" t="s">
+      <c r="B481" s="9" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="482" ht="17.55" spans="1:2">
-      <c r="A482" s="9" t="s">
+      <c r="A482" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" s="10" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="483" ht="17.55" spans="1:2">
-      <c r="A483" s="8" t="s">
+      <c r="A483" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="B483" s="8" t="s">
+      <c r="B483" s="9" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="484" ht="17.55" spans="1:2">
-      <c r="A484" s="9" t="s">
+      <c r="A484" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="10" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="485" ht="17.55" spans="1:2">
-      <c r="A485" s="8" t="s">
+      <c r="A485" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="B485" s="8" t="s">
+      <c r="B485" s="9" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="486" ht="17.55" spans="1:2">
-      <c r="A486" s="9" t="s">
+      <c r="A486" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="10" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="487" ht="17.55" spans="1:2">
-      <c r="A487" s="8" t="s">
+      <c r="A487" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="B487" s="8" t="s">
+      <c r="B487" s="9" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="488" ht="17.55" spans="1:2">
-      <c r="A488" s="9" t="s">
+      <c r="A488" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="10" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="489" ht="17.55" spans="1:2">
-      <c r="A489" s="8" t="s">
+      <c r="A489" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="B489" s="8" t="s">
+      <c r="B489" s="9" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="490" ht="17.55" spans="1:2">
-      <c r="A490" s="9" t="s">
+      <c r="A490" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="10" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="491" ht="17.55" spans="1:2">
-      <c r="A491" s="8" t="s">
+      <c r="A491" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="B491" s="8" t="s">
+      <c r="B491" s="9" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="492" ht="17.55" spans="1:2">
-      <c r="A492" s="9" t="s">
+      <c r="A492" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B492" s="9" t="s">
+      <c r="B492" s="10" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="493" ht="17.55" spans="1:2">
-      <c r="A493" s="8" t="s">
+      <c r="A493" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="B493" s="8" t="s">
+      <c r="B493" s="9" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="494" ht="17.55" spans="1:2">
-      <c r="A494" s="9" t="s">
+      <c r="A494" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="10" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="495" ht="17.55" spans="1:2">
-      <c r="A495" s="8" t="s">
+      <c r="A495" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B495" s="8" t="s">
+      <c r="B495" s="9" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="496" ht="17.55" spans="1:2">
-      <c r="A496" s="9" t="s">
+      <c r="A496" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="10" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="497" ht="17.55" spans="1:2">
-      <c r="A497" s="8" t="s">
+      <c r="A497" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="B497" s="8" t="s">
+      <c r="B497" s="9" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="498" ht="17.55" spans="1:2">
-      <c r="A498" s="9" t="s">
+      <c r="A498" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="10" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="499" ht="17.55" spans="1:2">
-      <c r="A499" s="8" t="s">
+      <c r="A499" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="B499" s="8" t="s">
+      <c r="B499" s="9" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="500" ht="17.55" spans="1:2">
-      <c r="A500" s="9" t="s">
+      <c r="A500" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="10" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="501" ht="32.75" spans="1:2">
-      <c r="A501" s="8" t="s">
+      <c r="A501" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="B501" s="8" t="s">
+      <c r="B501" s="9" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="502" ht="17.55" spans="1:2">
-      <c r="A502" s="9" t="s">
+      <c r="A502" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="10" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="503" ht="17.55" spans="1:2">
-      <c r="A503" s="8" t="s">
+      <c r="A503" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="B503" s="8" t="s">
+      <c r="B503" s="9" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="504" ht="17.55" spans="1:2">
-      <c r="A504" s="9" t="s">
+      <c r="A504" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B504" s="10" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="505" ht="17.55" spans="1:2">
-      <c r="A505" s="8" t="s">
+      <c r="A505" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="B505" s="8" t="s">
+      <c r="B505" s="9" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="506" ht="17.55" spans="1:2">
-      <c r="A506" s="9" t="s">
+      <c r="A506" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="10" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="507" ht="17.55" spans="1:2">
-      <c r="A507" s="8" t="s">
+      <c r="A507" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="B507" s="8" t="s">
+      <c r="B507" s="9" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="508" ht="17.55" spans="1:2">
-      <c r="A508" s="9" t="s">
+      <c r="A508" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="B508" s="9" t="s">
+      <c r="B508" s="10" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="509" ht="17.55" spans="1:2">
-      <c r="A509" s="8" t="s">
+      <c r="A509" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="B509" s="8" t="s">
+      <c r="B509" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="510" ht="17.55" spans="1:2">
-      <c r="A510" s="9" t="s">
+      <c r="A510" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B510" s="10" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="511" ht="17.55" spans="1:2">
-      <c r="A511" s="8" t="s">
+      <c r="A511" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="B511" s="8" t="s">
+      <c r="B511" s="9" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="512" ht="17.55" spans="1:2">
-      <c r="A512" s="9" t="s">
+      <c r="A512" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="10" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="513" ht="17.55" spans="1:2">
-      <c r="A513" s="8" t="s">
+      <c r="A513" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="B513" s="8" t="s">
+      <c r="B513" s="9" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="514" ht="17.55" spans="1:2">
-      <c r="A514" s="9" t="s">
+      <c r="A514" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="10" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="515" ht="17.55" spans="1:2">
-      <c r="A515" s="8" t="s">
+      <c r="A515" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="B515" s="8" t="s">
+      <c r="B515" s="9" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="516" ht="17.55" spans="1:2">
-      <c r="A516" s="9" t="s">
+      <c r="A516" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="10" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="517" ht="17.55" spans="1:2">
-      <c r="A517" s="8" t="s">
+      <c r="A517" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B517" s="8" t="s">
+      <c r="B517" s="9" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="518" ht="17.55" spans="1:2">
-      <c r="A518" s="9" t="s">
+      <c r="A518" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B518" s="10" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="519" ht="17.55" spans="1:2">
-      <c r="A519" s="8" t="s">
+      <c r="A519" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="B519" s="8" t="s">
+      <c r="B519" s="9" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="520" ht="17.55" spans="1:2">
-      <c r="A520" s="9" t="s">
+      <c r="A520" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="10" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="521" ht="17.55" spans="1:2">
-      <c r="A521" s="8" t="s">
+      <c r="A521" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="B521" s="8" t="s">
+      <c r="B521" s="9" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="522" ht="17.55" spans="1:2">
-      <c r="A522" s="9" t="s">
+      <c r="A522" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="523" ht="17.55" spans="1:2">
-      <c r="A523" s="8" t="s">
+      <c r="A523" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="B523" s="8" t="s">
+      <c r="B523" s="9" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="524" ht="17.55" spans="1:2">
-      <c r="A524" s="9" t="s">
+      <c r="A524" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="10" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="525" ht="17.55" spans="1:2">
-      <c r="A525" s="8" t="s">
+      <c r="A525" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B525" s="8" t="s">
+      <c r="B525" s="9" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="526" ht="17.55" spans="1:2">
-      <c r="A526" s="9" t="s">
+      <c r="A526" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="10" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="527" ht="17.55" spans="1:2">
-      <c r="A527" s="8" t="s">
+      <c r="A527" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="B527" s="8" t="s">
+      <c r="B527" s="9" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="528" ht="17.55" spans="1:2">
-      <c r="A528" s="9" t="s">
+      <c r="A528" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="10" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="529" ht="17.55" spans="1:2">
-      <c r="A529" s="8" t="s">
+      <c r="A529" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B529" s="8" t="s">
+      <c r="B529" s="9" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="530" ht="17.55" spans="1:2">
-      <c r="A530" s="9" t="s">
+      <c r="A530" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="10" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="531" ht="17.55" spans="1:2">
-      <c r="A531" s="8" t="s">
+      <c r="A531" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B531" s="8" t="s">
+      <c r="B531" s="9" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="532" ht="17.55" spans="1:2">
-      <c r="A532" s="9" t="s">
+      <c r="A532" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B532" s="10" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="533" ht="17.55" spans="1:2">
-      <c r="A533" s="8" t="s">
+      <c r="A533" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="B533" s="8" t="s">
+      <c r="B533" s="9" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="534" ht="17.55" spans="1:2">
-      <c r="A534" s="9" t="s">
+      <c r="A534" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="10" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="535" ht="17.55" spans="1:2">
-      <c r="A535" s="8" t="s">
+      <c r="A535" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B535" s="8" t="s">
+      <c r="B535" s="9" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="536" ht="17.55" spans="1:2">
-      <c r="A536" s="9" t="s">
+      <c r="A536" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="10" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="537" ht="17.55" spans="1:2">
-      <c r="A537" s="8" t="s">
+      <c r="A537" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="B537" s="8" t="s">
+      <c r="B537" s="9" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="538" ht="17.55" spans="1:2">
-      <c r="A538" s="9" t="s">
+      <c r="A538" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="10" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="539" ht="17.55" spans="1:2">
-      <c r="A539" s="8" t="s">
+      <c r="A539" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="B539" s="8" t="s">
+      <c r="B539" s="9" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="540" ht="17.55" spans="1:2">
-      <c r="A540" s="9" t="s">
+      <c r="A540" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" s="10" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="541" ht="32.75" spans="1:2">
-      <c r="A541" s="8" t="s">
+      <c r="A541" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B541" s="8" t="s">
+      <c r="B541" s="9" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="542" ht="17.55" spans="1:2">
-      <c r="A542" s="9" t="s">
+      <c r="A542" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" s="10" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="543" ht="17.55" spans="1:2">
-      <c r="A543" s="8" t="s">
+      <c r="A543" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="B543" s="8" t="s">
+      <c r="B543" s="9" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="544" ht="17.55" spans="1:2">
-      <c r="A544" s="9" t="s">
+      <c r="A544" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" s="10" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="545" ht="17.55" spans="1:2">
-      <c r="A545" s="8" t="s">
+      <c r="A545" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="B545" s="8" t="s">
+      <c r="B545" s="9" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="546" ht="17.55" spans="1:2">
-      <c r="A546" s="9" t="s">
+      <c r="A546" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="B546" s="9" t="s">
+      <c r="B546" s="10" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="547" ht="17.55" spans="1:2">
-      <c r="A547" s="8" t="s">
+      <c r="A547" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="B547" s="8" t="s">
+      <c r="B547" s="9" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="548" ht="17.55" spans="1:2">
-      <c r="A548" s="9" t="s">
+      <c r="A548" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="B548" s="9" t="s">
+      <c r="B548" s="10" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="549" ht="17.55" spans="1:2">
-      <c r="A549" s="8" t="s">
+      <c r="A549" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="B549" s="8" t="s">
+      <c r="B549" s="9" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="550" ht="17.55" spans="1:2">
-      <c r="A550" s="9" t="s">
+      <c r="A550" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="B550" s="9" t="s">
+      <c r="B550" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="551" ht="17.55" spans="1:2">
-      <c r="A551" s="8" t="s">
+      <c r="A551" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="B551" s="8" t="s">
+      <c r="B551" s="9" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="552" ht="17.55" spans="1:2">
-      <c r="A552" s="9" t="s">
+      <c r="A552" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B552" s="9" t="s">
+      <c r="B552" s="10" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="553" ht="17.55" spans="1:2">
-      <c r="A553" s="8" t="s">
+      <c r="A553" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="B553" s="8" t="s">
+      <c r="B553" s="9" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="554" ht="17.55" spans="1:2">
-      <c r="A554" s="9" t="s">
+      <c r="A554" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="B554" s="9" t="s">
+      <c r="B554" s="10" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="555" ht="17.55" spans="1:2">
-      <c r="A555" s="8" t="s">
+      <c r="A555" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B555" s="8" t="s">
+      <c r="B555" s="9" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
-      <c r="A556" s="9" t="s">
+    <row r="556" ht="17.55" spans="1:2">
+      <c r="A556" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="B556" s="9" t="s">
+      <c r="B556" s="10" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="557" ht="32.75" spans="1:2">
-      <c r="A557" s="8" t="s">
+      <c r="A557" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="B557" s="8" t="s">
+      <c r="B557" s="9" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="558" ht="17.55" spans="1:2">
-      <c r="A558" s="9" t="s">
+      <c r="A558" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="B558" s="9" t="s">
+      <c r="B558" s="10" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="559" ht="17.55" spans="1:2">
-      <c r="A559" s="8" t="s">
+      <c r="A559" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="B559" s="8" t="s">
+      <c r="B559" s="9" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="560" ht="17.55" spans="1:2">
-      <c r="A560" s="9" t="s">
+      <c r="A560" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="B560" s="9" t="s">
+      <c r="B560" s="10" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="561" ht="17.55" spans="1:2">
-      <c r="A561" s="8" t="s">
+      <c r="A561" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="B561" s="8" t="s">
+      <c r="B561" s="9" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="562" ht="17.55" spans="1:2">
-      <c r="A562" s="9" t="s">
+      <c r="A562" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="B562" s="9" t="s">
+      <c r="B562" s="10" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="563" ht="17.55" spans="1:2">
-      <c r="A563" s="8" t="s">
+      <c r="A563" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="B563" s="8" t="s">
+      <c r="B563" s="9" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="564" ht="17.55" spans="1:2">
-      <c r="A564" s="9" t="s">
+      <c r="A564" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="B564" s="9" t="s">
+      <c r="B564" s="10" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="565" ht="17.55" spans="1:2">
-      <c r="A565" s="8" t="s">
+      <c r="A565" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B565" s="8" t="s">
+      <c r="B565" s="9" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="566" ht="17.55" spans="1:2">
-      <c r="A566" s="9" t="s">
+      <c r="A566" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="B566" s="9" t="s">
+      <c r="B566" s="10" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="567" ht="17.55" spans="1:2">
-      <c r="A567" s="8" t="s">
+      <c r="A567" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="B567" s="8" t="s">
+      <c r="B567" s="9" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="568" ht="17.55" spans="1:2">
-      <c r="A568" s="9" t="s">
+      <c r="A568" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="B568" s="9" t="s">
+      <c r="B568" s="10" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="569" ht="17.55" spans="1:2">
-      <c r="A569" s="8" t="s">
+      <c r="A569" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="B569" s="8" t="s">
+      <c r="B569" s="9" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="570" ht="17.55" spans="1:2">
-      <c r="A570" s="9" t="s">
+      <c r="A570" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="10" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="571" ht="17.55" spans="1:2">
-      <c r="A571" s="8" t="s">
+      <c r="A571" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="B571" s="8" t="s">
+      <c r="B571" s="9" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="572" ht="17.55" spans="1:2">
-      <c r="A572" s="9" t="s">
+      <c r="A572" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="B572" s="9" t="s">
+      <c r="B572" s="10" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="573" ht="17.55" spans="1:2">
-      <c r="A573" s="8" t="s">
+      <c r="A573" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="B573" s="8" t="s">
+      <c r="B573" s="9" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="574" ht="17.55" spans="1:2">
-      <c r="A574" s="9" t="s">
+      <c r="A574" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="B574" s="9" t="s">
+      <c r="B574" s="10" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="575" ht="17.55" spans="1:2">
-      <c r="A575" s="8" t="s">
+      <c r="A575" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="B575" s="8" t="s">
+      <c r="B575" s="9" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="576" ht="17.55" spans="1:2">
-      <c r="A576" s="9" t="s">
+      <c r="A576" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="10" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="577" ht="17.55" spans="1:2">
-      <c r="A577" s="8" t="s">
+      <c r="A577" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="B577" s="8" t="s">
+      <c r="B577" s="9" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="578" ht="17.55" spans="1:2">
-      <c r="A578" s="9" t="s">
+      <c r="A578" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="10" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="579" ht="17.55" spans="1:2">
-      <c r="A579" s="8" t="s">
+      <c r="A579" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="B579" s="8" t="s">
+      <c r="B579" s="9" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="580" ht="17.55" spans="1:2">
-      <c r="A580" s="9" t="s">
+      <c r="A580" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="B580" s="9" t="s">
+      <c r="B580" s="10" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="581" ht="17.55" spans="1:2">
-      <c r="A581" s="8" t="s">
+      <c r="A581" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="B581" s="8" t="s">
+      <c r="B581" s="9" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="582" ht="17.55" spans="1:2">
-      <c r="A582" s="9" t="s">
+      <c r="A582" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="B582" s="9" t="s">
+      <c r="B582" s="10" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="583" ht="17.55" spans="1:2">
-      <c r="A583" s="8" t="s">
+      <c r="A583" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="B583" s="8" t="s">
+      <c r="B583" s="9" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="584" ht="17.55" spans="1:2">
-      <c r="A584" s="9" t="s">
+      <c r="A584" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="B584" s="9" t="s">
+      <c r="B584" s="10" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="585" ht="17.55" spans="1:2">
-      <c r="A585" s="8" t="s">
+      <c r="A585" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="B585" s="8" t="s">
+      <c r="B585" s="9" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="586" ht="17.55" spans="1:2">
-      <c r="A586" s="9" t="s">
+      <c r="A586" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="10" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="587" ht="17.55" spans="1:2">
-      <c r="A587" s="8" t="s">
+      <c r="A587" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="B587" s="8" t="s">
+      <c r="B587" s="9" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="588" ht="17.55" spans="1:2">
-      <c r="A588" s="9" t="s">
+      <c r="A588" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="B588" s="9" t="s">
+      <c r="B588" s="10" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="589" ht="32.75" spans="1:2">
-      <c r="A589" s="8" t="s">
+      <c r="A589" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="B589" s="8" t="s">
+      <c r="B589" s="9" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="590" ht="17.55" spans="1:2">
-      <c r="A590" s="9" t="s">
+      <c r="A590" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" s="10" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="591" ht="17.55" spans="1:2">
-      <c r="A591" s="8" t="s">
+      <c r="A591" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="B591" s="8" t="s">
+      <c r="B591" s="9" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="592" ht="17.55" spans="1:2">
-      <c r="A592" s="9" t="s">
+      <c r="A592" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="10" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="593" ht="17.55" spans="1:2">
-      <c r="A593" s="8" t="s">
+      <c r="A593" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="B593" s="8" t="s">
+      <c r="B593" s="9" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="594" ht="17.55" spans="1:2">
-      <c r="A594" s="9" t="s">
+      <c r="A594" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B594" s="10" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="595" ht="17.55" spans="1:2">
-      <c r="A595" s="8" t="s">
+      <c r="A595" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="B595" s="8" t="s">
+      <c r="B595" s="9" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="596" ht="17.55" spans="1:2">
-      <c r="A596" s="9" t="s">
+      <c r="A596" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="B596" s="9" t="s">
+      <c r="B596" s="10" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="597" ht="17.55" spans="1:2">
-      <c r="A597" s="8" t="s">
+      <c r="A597" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="B597" s="8" t="s">
+      <c r="B597" s="9" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="598" ht="17.55" spans="1:2">
-      <c r="A598" s="9" t="s">
+      <c r="A598" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="B598" s="9" t="s">
+      <c r="B598" s="10" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="599" ht="17.55" spans="1:2">
-      <c r="A599" s="8" t="s">
+      <c r="A599" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="B599" s="8" t="s">
+      <c r="B599" s="9" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="600" ht="17.55" spans="1:2">
-      <c r="A600" s="9" t="s">
+      <c r="A600" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B600" s="10" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="601" ht="17.55" spans="1:2">
-      <c r="A601" s="8" t="s">
+      <c r="A601" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="B601" s="8" t="s">
+      <c r="B601" s="9" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="602" ht="17.55" spans="1:2">
-      <c r="A602" s="9" t="s">
+      <c r="A602" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="B602" s="9" t="s">
+      <c r="B602" s="10" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="603" ht="17.55" spans="1:2">
-      <c r="A603" s="8" t="s">
+      <c r="A603" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="B603" s="8" t="s">
+      <c r="B603" s="9" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="604" ht="17.55" spans="1:2">
-      <c r="A604" s="9" t="s">
+      <c r="A604" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="B604" s="9" t="s">
+      <c r="B604" s="10" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="605" ht="17.55" spans="1:2">
-      <c r="A605" s="8" t="s">
+      <c r="A605" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="B605" s="8" t="s">
+      <c r="B605" s="9" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="606" ht="17.55" spans="1:2">
-      <c r="A606" s="9" t="s">
+      <c r="A606" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B606" s="10" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="607" ht="17.55" spans="1:2">
-      <c r="A607" s="8" t="s">
+      <c r="A607" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="B607" s="8" t="s">
+      <c r="B607" s="9" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="608" spans="1:2">
-      <c r="A608" s="9" t="s">
+    <row r="608" ht="17.55" spans="1:2">
+      <c r="A608" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B608" s="10" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="609" ht="17.55" spans="1:2">
-      <c r="A609" s="8" t="s">
+      <c r="A609" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="B609" s="8" t="s">
+      <c r="B609" s="9" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="610" ht="17.55" spans="1:2">
-      <c r="A610" s="9" t="s">
+      <c r="A610" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B610" s="10" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="611" ht="32.75" spans="1:2">
-      <c r="A611" s="8" t="s">
+      <c r="A611" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="B611" s="8" t="s">
+      <c r="B611" s="9" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="612" ht="17.55" spans="1:2">
-      <c r="A612" s="9" t="s">
+      <c r="A612" s="10" t="s">
         <v>906</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B612" s="10" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="613" ht="17.55" spans="1:2">
-      <c r="A613" s="8" t="s">
+      <c r="A613" s="9" t="s">
         <v>908</v>
       </c>
-      <c r="B613" s="8" t="s">
+      <c r="B613" s="9" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="614" ht="17.55" spans="1:2">
-      <c r="A614" s="9" t="s">
+      <c r="A614" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B614" s="10" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="615" ht="32.75" spans="1:2">
-      <c r="A615" s="8" t="s">
+      <c r="A615" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="B615" s="8" t="s">
+      <c r="B615" s="9" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="616" ht="17.55" spans="1:2">
-      <c r="A616" s="9" t="s">
+      <c r="A616" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="B616" s="9" t="s">
+      <c r="B616" s="10" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="617" ht="17.55" spans="1:2">
-      <c r="A617" s="8" t="s">
+      <c r="A617" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="B617" s="8" t="s">
+      <c r="B617" s="9" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="618" ht="17.55" spans="1:2">
-      <c r="A618" s="9" t="s">
+      <c r="A618" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B618" s="10" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="619" ht="17.55" spans="1:2">
-      <c r="A619" s="8" t="s">
+      <c r="A619" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="B619" s="8" t="s">
+      <c r="B619" s="9" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="620" spans="1:2">
-      <c r="A620" s="9" t="s">
+    <row r="620" ht="17.55" spans="1:2">
+      <c r="A620" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" s="10" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="621" ht="17.55" spans="1:2">
-      <c r="A621" s="8" t="s">
+      <c r="A621" s="9" t="s">
         <v>920</v>
       </c>
-      <c r="B621" s="8" t="s">
+      <c r="B621" s="9" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="622" ht="17.55" spans="1:2">
-      <c r="A622" s="9" t="s">
+      <c r="A622" s="10" t="s">
         <v>921</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B622" s="10" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="623" ht="17.55" spans="1:2">
-      <c r="A623" s="8" t="s">
+      <c r="A623" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="B623" s="8" t="s">
+      <c r="B623" s="9" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="624" ht="17.55" spans="1:2">
-      <c r="A624" s="9" t="s">
+      <c r="A624" s="10" t="s">
         <v>924</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" s="10" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="625" ht="17.55" spans="1:2">
-      <c r="A625" s="8" t="s">
+      <c r="A625" s="9" t="s">
         <v>926</v>
       </c>
-      <c r="B625" s="8" t="s">
+      <c r="B625" s="9" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="626" ht="17.55" spans="1:2">
-      <c r="A626" s="9" t="s">
+      <c r="A626" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B626" s="10" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="627" ht="17.55" spans="1:2">
-      <c r="A627" s="8" t="s">
+      <c r="A627" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="B627" s="8" t="s">
+      <c r="B627" s="9" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="628" ht="17.55" spans="1:2">
-      <c r="A628" s="9" t="s">
+      <c r="A628" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" s="10" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="629" ht="17.55" spans="1:2">
-      <c r="A629" s="8" t="s">
+      <c r="A629" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="B629" s="8" t="s">
+      <c r="B629" s="9" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="630" ht="17.55" spans="1:2">
-      <c r="A630" s="9" t="s">
+      <c r="A630" s="10" t="s">
         <v>933</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" s="10" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="631" ht="17.55" spans="1:2">
-      <c r="A631" s="8" t="s">
+      <c r="A631" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="B631" s="8" t="s">
+      <c r="B631" s="9" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="632" ht="17.55" spans="1:2">
-      <c r="A632" s="9" t="s">
+      <c r="A632" s="10" t="s">
         <v>936</v>
       </c>
-      <c r="B632" s="9" t="s">
+      <c r="B632" s="10" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="633" ht="32.75" spans="1:2">
-      <c r="A633" s="8" t="s">
+      <c r="A633" s="9" t="s">
         <v>938</v>
       </c>
-      <c r="B633" s="8" t="s">
+      <c r="B633" s="9" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="634" ht="17.55" spans="1:2">
-      <c r="A634" s="9" t="s">
+      <c r="A634" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="B634" s="9" t="s">
+      <c r="B634" s="10" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="635" ht="32.75" spans="1:2">
-      <c r="A635" s="8" t="s">
+      <c r="A635" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="B635" s="8" t="s">
+      <c r="B635" s="9" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="636" ht="17.55" spans="1:2">
-      <c r="A636" s="9" t="s">
+      <c r="A636" s="10" t="s">
         <v>942</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" s="10" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="637" ht="17.55" spans="1:2">
-      <c r="A637" s="8" t="s">
+      <c r="A637" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="B637" s="8" t="s">
+      <c r="B637" s="9" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="638" ht="17.55" spans="1:2">
-      <c r="A638" s="9" t="s">
+      <c r="A638" s="10" t="s">
         <v>945</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="10" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="639" ht="17.55" spans="1:2">
-      <c r="A639" s="8" t="s">
+      <c r="A639" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="B639" s="8" t="s">
+      <c r="B639" s="9" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="640" ht="17.55" spans="1:2">
-      <c r="A640" s="9" t="s">
+      <c r="A640" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" s="10" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="641" ht="17.55" spans="1:2">
-      <c r="A641" s="8" t="s">
+      <c r="A641" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="B641" s="8" t="s">
+      <c r="B641" s="9" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="642" ht="17.55" spans="1:2">
-      <c r="A642" s="9" t="s">
+      <c r="A642" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="10" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="643" ht="17.55" spans="1:2">
-      <c r="A643" s="8" t="s">
+      <c r="A643" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="B643" s="8" t="s">
+      <c r="B643" s="9" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="644" ht="17.55" spans="1:2">
-      <c r="A644" s="9" t="s">
+      <c r="A644" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="10" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="645" ht="17.55" spans="1:2">
-      <c r="A645" s="8" t="s">
+      <c r="A645" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="B645" s="8" t="s">
+      <c r="B645" s="9" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="646" ht="17.55" spans="1:2">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="10" t="s">
         <v>957</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="10" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="647" ht="17.55" spans="1:2">
-      <c r="A647" s="8" t="s">
+      <c r="A647" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="B647" s="8" t="s">
+      <c r="B647" s="9" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="648" ht="17.55" spans="1:2">
-      <c r="A648" s="9" t="s">
+      <c r="A648" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="10" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="649" ht="17.55" spans="1:2">
-      <c r="A649" s="8" t="s">
+      <c r="A649" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="B649" s="8" t="s">
+      <c r="B649" s="9" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="650" ht="17.55" spans="1:2">
-      <c r="A650" s="9" t="s">
+      <c r="A650" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="B650" s="9" t="s">
+      <c r="B650" s="10" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="651" ht="17.55" spans="1:2">
-      <c r="A651" s="8" t="s">
+      <c r="A651" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="B651" s="8" t="s">
+      <c r="B651" s="9" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="652" ht="17.55" spans="1:2">
-      <c r="A652" s="9" t="s">
+      <c r="A652" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="B652" s="9" t="s">
+      <c r="B652" s="10" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="653" ht="17.55" spans="1:2">
-      <c r="A653" s="8" t="s">
+      <c r="A653" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="B653" s="8" t="s">
+      <c r="B653" s="9" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="654" ht="17.55" spans="1:2">
-      <c r="A654" s="9" t="s">
+      <c r="A654" s="10" t="s">
         <v>969</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="10" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="655" ht="17.55" spans="1:2">
-      <c r="A655" s="8" t="s">
+      <c r="A655" s="9" t="s">
         <v>971</v>
       </c>
-      <c r="B655" s="8" t="s">
+      <c r="B655" s="9" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="656" ht="17.55" spans="1:2">
-      <c r="A656" s="9" t="s">
+      <c r="A656" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="B656" s="9" t="s">
+      <c r="B656" s="10" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="657" ht="17.55" spans="1:2">
-      <c r="A657" s="8" t="s">
+      <c r="A657" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="B657" s="8" t="s">
+      <c r="B657" s="9" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="658" ht="17.55" spans="1:2">
-      <c r="A658" s="9" t="s">
+      <c r="A658" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="B658" s="9" t="s">
+      <c r="B658" s="10" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="659" ht="17.55" spans="1:2">
-      <c r="A659" s="8" t="s">
+      <c r="A659" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="B659" s="8" t="s">
+      <c r="B659" s="9" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="660" ht="17.55" spans="1:2">
-      <c r="A660" s="9" t="s">
+      <c r="A660" s="10" t="s">
         <v>978</v>
       </c>
-      <c r="B660" s="9" t="s">
+      <c r="B660" s="10" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="661" ht="17.55" spans="1:2">
-      <c r="A661" s="8" t="s">
+      <c r="A661" s="9" t="s">
         <v>980</v>
       </c>
-      <c r="B661" s="8" t="s">
+      <c r="B661" s="9" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="662" ht="17.55" spans="1:2">
-      <c r="A662" s="9" t="s">
+      <c r="A662" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="B662" s="9" t="s">
+      <c r="B662" s="10" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="663" ht="17.55" spans="1:2">
-      <c r="A663" s="8" t="s">
+      <c r="A663" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="B663" s="8" t="s">
+      <c r="B663" s="9" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="664" ht="17.55" spans="1:2">
-      <c r="A664" s="9" t="s">
+      <c r="A664" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="B664" s="9" t="s">
+      <c r="B664" s="10" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="665" ht="17.55" spans="1:2">
-      <c r="A665" s="8" t="s">
+      <c r="A665" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="B665" s="8" t="s">
+      <c r="B665" s="9" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="666" ht="17.55" spans="1:2">
-      <c r="A666" s="9" t="s">
+      <c r="A666" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B666" s="9" t="s">
+      <c r="B666" s="10" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="667" ht="17.55" spans="1:2">
-      <c r="A667" s="8" t="s">
+      <c r="A667" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="B667" s="8" t="s">
+      <c r="B667" s="9" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="668" ht="17.55" spans="1:2">
-      <c r="A668" s="9" t="s">
+      <c r="A668" s="10" t="s">
         <v>990</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" s="10" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="669" ht="17.55" spans="1:2">
-      <c r="A669" s="8" t="s">
+      <c r="A669" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="B669" s="8" t="s">
+      <c r="B669" s="9" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="670" ht="17.55" spans="1:2">
-      <c r="A670" s="9" t="s">
+      <c r="A670" s="10" t="s">
         <v>993</v>
       </c>
-      <c r="B670" s="9" t="s">
+      <c r="B670" s="10" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="671" ht="17.55" spans="1:2">
-      <c r="A671" s="8" t="s">
+      <c r="A671" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="B671" s="8" t="s">
+      <c r="B671" s="9" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="672" ht="17.55" spans="1:2">
-      <c r="A672" s="9" t="s">
+      <c r="A672" s="10" t="s">
         <v>996</v>
       </c>
-      <c r="B672" s="9" t="s">
+      <c r="B672" s="10" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="673" ht="17.55" spans="1:2">
-      <c r="A673" s="8" t="s">
+      <c r="A673" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="B673" s="8" t="s">
+      <c r="B673" s="9" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="674" ht="17.55" spans="1:2">
-      <c r="A674" s="9" t="s">
+      <c r="A674" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="B674" s="9" t="s">
+      <c r="B674" s="10" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="675" ht="17.55" spans="1:2">
-      <c r="A675" s="8" t="s">
+      <c r="A675" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="B675" s="8" t="s">
+      <c r="B675" s="9" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="676" ht="17.55" spans="1:2">
-      <c r="A676" s="9" t="s">
+      <c r="A676" s="10" t="s">
         <v>1002</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="10" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="677" ht="17.55" spans="1:2">
-      <c r="A677" s="8" t="s">
+      <c r="A677" s="9" t="s">
         <v>1004</v>
       </c>
-      <c r="B677" s="8" t="s">
+      <c r="B677" s="9" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="678" ht="17.55" spans="1:2">
-      <c r="A678" s="9" t="s">
+      <c r="A678" s="10" t="s">
         <v>1005</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" s="10" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="679" ht="17.55" spans="1:2">
-      <c r="A679" s="8" t="s">
+      <c r="A679" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="B679" s="8" t="s">
+      <c r="B679" s="9" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="680" ht="17.55" spans="1:2">
-      <c r="A680" s="9" t="s">
+      <c r="A680" s="10" t="s">
         <v>1008</v>
       </c>
-      <c r="B680" s="9" t="s">
+      <c r="B680" s="10" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="681" ht="17.55" spans="1:2">
-      <c r="A681" s="8" t="s">
+      <c r="A681" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="B681" s="8" t="s">
+      <c r="B681" s="9" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="682" ht="17.55" spans="1:2">
-      <c r="A682" s="9" t="s">
+      <c r="A682" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="B682" s="9" t="s">
+      <c r="B682" s="10" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="683" ht="17.55" spans="1:2">
-      <c r="A683" s="8" t="s">
+      <c r="A683" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="B683" s="8" t="s">
+      <c r="B683" s="9" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="684" ht="17.55" spans="1:2">
-      <c r="A684" s="9" t="s">
+      <c r="A684" s="10" t="s">
         <v>1014</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" s="10" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="685" ht="17.55" spans="1:2">
-      <c r="A685" s="8" t="s">
+      <c r="A685" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="B685" s="8" t="s">
+      <c r="B685" s="9" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="686" ht="17.55" spans="1:2">
-      <c r="A686" s="9" t="s">
+      <c r="A686" s="10" t="s">
         <v>1017</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="10" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="687" ht="17.55" spans="1:2">
-      <c r="A687" s="8" t="s">
+      <c r="A687" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="B687" s="8" t="s">
+      <c r="B687" s="9" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="688" ht="17.55" spans="1:2">
-      <c r="A688" s="9" t="s">
+      <c r="A688" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="B688" s="9" t="s">
+      <c r="B688" s="10" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="689" ht="32.75" spans="1:2">
-      <c r="A689" s="8" t="s">
+      <c r="A689" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="B689" s="8" t="s">
+      <c r="B689" s="9" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="690" ht="17.55" spans="1:2">
-      <c r="A690" s="9" t="s">
+      <c r="A690" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="B690" s="9" t="s">
+      <c r="B690" s="10" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="691" ht="17.55" spans="1:2">
-      <c r="A691" s="8" t="s">
+      <c r="A691" s="9" t="s">
         <v>1025</v>
       </c>
-      <c r="B691" s="8" t="s">
+      <c r="B691" s="9" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="692" ht="17.55" spans="1:2">
-      <c r="A692" s="9" t="s">
+      <c r="A692" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="B692" s="9" t="s">
+      <c r="B692" s="10" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="693" ht="17.55" spans="1:2">
-      <c r="A693" s="8" t="s">
+      <c r="A693" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="B693" s="8" t="s">
+      <c r="B693" s="9" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="694" ht="17.55" spans="1:2">
-      <c r="A694" s="9" t="s">
+      <c r="A694" s="10" t="s">
         <v>1029</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="10" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="695" ht="17.55" spans="1:2">
-      <c r="A695" s="8" t="s">
+      <c r="A695" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="B695" s="8" t="s">
+      <c r="B695" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="696" ht="17.55" spans="1:2">
-      <c r="A696" s="9" t="s">
+      <c r="A696" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="10" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="697" ht="17.55" spans="1:2">
-      <c r="A697" s="8" t="s">
+      <c r="A697" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="B697" s="8" t="s">
+      <c r="B697" s="9" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="698" ht="17.55" spans="1:2">
-      <c r="A698" s="9" t="s">
+      <c r="A698" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="B698" s="9" t="s">
+      <c r="B698" s="10" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="699" ht="17.55" spans="1:2">
-      <c r="A699" s="8" t="s">
+      <c r="A699" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="B699" s="8" t="s">
+      <c r="B699" s="9" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="700" ht="17.55" spans="1:2">
-      <c r="A700" s="9" t="s">
+      <c r="A700" s="10" t="s">
         <v>1038</v>
       </c>
-      <c r="B700" s="9" t="s">
+      <c r="B700" s="10" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="701" ht="17.55" spans="1:2">
-      <c r="A701" s="8" t="s">
+      <c r="A701" s="9" t="s">
         <v>1040</v>
       </c>
-      <c r="B701" s="8" t="s">
+      <c r="B701" s="9" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="702" ht="17.55" spans="1:2">
-      <c r="A702" s="9" t="s">
+      <c r="A702" s="10" t="s">
         <v>1041</v>
       </c>
-      <c r="B702" s="9" t="s">
+      <c r="B702" s="10" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="703" ht="32.75" spans="1:2">
-      <c r="A703" s="8" t="s">
+      <c r="A703" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="B703" s="8" t="s">
+      <c r="B703" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="704" ht="17.55" spans="1:2">
-      <c r="A704" s="9" t="s">
+      <c r="A704" s="10" t="s">
         <v>1044</v>
       </c>
-      <c r="B704" s="9" t="s">
+      <c r="B704" s="10" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="705" ht="17.55" spans="1:2">
-      <c r="A705" s="8" t="s">
+      <c r="A705" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="B705" s="8" t="s">
+      <c r="B705" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="706" ht="17.55" spans="1:2">
-      <c r="A706" s="9" t="s">
+      <c r="A706" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="B706" s="9" t="s">
+      <c r="B706" s="10" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="707" ht="17.55" spans="1:2">
-      <c r="A707" s="8" t="s">
+      <c r="A707" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="B707" s="8" t="s">
+      <c r="B707" s="9" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="708" ht="17.55" spans="1:2">
-      <c r="A708" s="9" t="s">
+      <c r="A708" s="10" t="s">
         <v>1050</v>
       </c>
-      <c r="B708" s="9" t="s">
+      <c r="B708" s="10" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="709" ht="17.55" spans="1:2">
-      <c r="A709" s="8" t="s">
+      <c r="A709" s="9" t="s">
         <v>1052</v>
       </c>
-      <c r="B709" s="8" t="s">
+      <c r="B709" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="710" ht="17.55" spans="1:2">
-      <c r="A710" s="9" t="s">
+      <c r="A710" s="10" t="s">
         <v>1053</v>
       </c>
-      <c r="B710" s="9" t="s">
+      <c r="B710" s="10" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="711" ht="17.55" spans="1:2">
-      <c r="A711" s="8" t="s">
+      <c r="A711" s="9" t="s">
         <v>1055</v>
       </c>
-      <c r="B711" s="8" t="s">
+      <c r="B711" s="9" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="712" ht="17.55" spans="1:2">
-      <c r="A712" s="9" t="s">
+      <c r="A712" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="B712" s="9" t="s">
+      <c r="B712" s="10" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="713" ht="17.55" spans="1:2">
-      <c r="A713" s="8" t="s">
+      <c r="A713" s="9" t="s">
         <v>1058</v>
       </c>
-      <c r="B713" s="8" t="s">
+      <c r="B713" s="9" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="714" ht="17.55" spans="1:2">
-      <c r="A714" s="9" t="s">
+      <c r="A714" s="10" t="s">
         <v>1059</v>
       </c>
-      <c r="B714" s="9" t="s">
+      <c r="B714" s="10" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="715" ht="17.55" spans="1:2">
-      <c r="A715" s="8" t="s">
+      <c r="A715" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="B715" s="8" t="s">
+      <c r="B715" s="9" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="716" ht="17.55" spans="1:2">
-      <c r="A716" s="9" t="s">
+      <c r="A716" s="10" t="s">
         <v>1062</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" s="10" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="717" ht="17.55" spans="1:2">
-      <c r="A717" s="8" t="s">
+      <c r="A717" s="9" t="s">
         <v>1064</v>
       </c>
-      <c r="B717" s="8" t="s">
+      <c r="B717" s="9" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="718" ht="17.55" spans="1:2">
-      <c r="A718" s="9" t="s">
+      <c r="A718" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="B718" s="9" t="s">
+      <c r="B718" s="10" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="719" ht="17.55" spans="1:2">
-      <c r="A719" s="8" t="s">
+      <c r="A719" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="B719" s="8" t="s">
+      <c r="B719" s="9" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="720" ht="17.55" spans="1:2">
-      <c r="A720" s="9" t="s">
+      <c r="A720" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="B720" s="9" t="s">
+      <c r="B720" s="10" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="721" ht="17.55" spans="1:2">
-      <c r="A721" s="8" t="s">
+      <c r="A721" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="B721" s="8" t="s">
+      <c r="B721" s="9" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="722" ht="17.55" spans="1:2">
-      <c r="A722" s="9" t="s">
+      <c r="A722" s="10" t="s">
         <v>1071</v>
       </c>
-      <c r="B722" s="9" t="s">
+      <c r="B722" s="10" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="723" ht="17.55" spans="1:2">
-      <c r="A723" s="8" t="s">
+      <c r="A723" s="9" t="s">
         <v>1073</v>
       </c>
-      <c r="B723" s="8" t="s">
+      <c r="B723" s="9" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="724" ht="17.55" spans="1:2">
-      <c r="A724" s="9" t="s">
+      <c r="A724" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B724" s="9" t="s">
+      <c r="B724" s="10" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="725" ht="17.55" spans="1:2">
-      <c r="A725" s="8" t="s">
+      <c r="A725" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="B725" s="8" t="s">
+      <c r="B725" s="9" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="726" ht="17.55" spans="1:2">
-      <c r="A726" s="9" t="s">
+      <c r="A726" s="10" t="s">
         <v>1077</v>
       </c>
-      <c r="B726" s="9" t="s">
+      <c r="B726" s="10" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="727" ht="17.55" spans="1:2">
-      <c r="A727" s="8" t="s">
+      <c r="A727" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="B727" s="8" t="s">
+      <c r="B727" s="9" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="728" ht="17.55" spans="1:2">
-      <c r="A728" s="9" t="s">
+      <c r="A728" s="10" t="s">
         <v>1080</v>
       </c>
-      <c r="B728" s="9" t="s">
+      <c r="B728" s="10" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="729" ht="17.55" spans="1:2">
-      <c r="A729" s="8" t="s">
+      <c r="A729" s="9" t="s">
         <v>1082</v>
       </c>
-      <c r="B729" s="8" t="s">
+      <c r="B729" s="9" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="730" ht="17.55" spans="1:2">
-      <c r="A730" s="9" t="s">
+      <c r="A730" s="10" t="s">
         <v>1083</v>
       </c>
-      <c r="B730" s="9" t="s">
+      <c r="B730" s="10" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="731" ht="17.55" spans="1:2">
-      <c r="A731" s="8" t="s">
+      <c r="A731" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="B731" s="8" t="s">
+      <c r="B731" s="9" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="732" ht="17.55" spans="1:2">
-      <c r="A732" s="9" t="s">
+      <c r="A732" s="10" t="s">
         <v>1086</v>
       </c>
-      <c r="B732" s="9" t="s">
+      <c r="B732" s="10" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="733" ht="17.55" spans="1:2">
-      <c r="A733" s="8" t="s">
+      <c r="A733" s="9" t="s">
         <v>1088</v>
       </c>
-      <c r="B733" s="8" t="s">
+      <c r="B733" s="9" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="734" ht="17.55" spans="1:2">
-      <c r="A734" s="9" t="s">
+      <c r="A734" s="10" t="s">
         <v>1089</v>
       </c>
-      <c r="B734" s="9" t="s">
+      <c r="B734" s="10" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="735" ht="17.55" spans="1:2">
-      <c r="A735" s="8" t="s">
+      <c r="A735" s="9" t="s">
         <v>1091</v>
       </c>
-      <c r="B735" s="8" t="s">
+      <c r="B735" s="9" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="736" ht="17.55" spans="1:2">
-      <c r="A736" s="9" t="s">
+      <c r="A736" s="10" t="s">
         <v>1092</v>
       </c>
-      <c r="B736" s="9" t="s">
+      <c r="B736" s="10" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="737" ht="17.55" spans="1:2">
-      <c r="A737" s="8" t="s">
+      <c r="A737" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="B737" s="8" t="s">
+      <c r="B737" s="9" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="738" ht="17.55" spans="1:2">
-      <c r="A738" s="9" t="s">
+      <c r="A738" s="10" t="s">
         <v>1095</v>
       </c>
-      <c r="B738" s="9" t="s">
+      <c r="B738" s="10" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="739" ht="32.75" spans="1:2">
-      <c r="A739" s="8" t="s">
+      <c r="A739" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="B739" s="8" t="s">
+      <c r="B739" s="9" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="740" ht="17.55" spans="1:2">
-      <c r="A740" s="9" t="s">
+      <c r="A740" s="10" t="s">
         <v>1098</v>
       </c>
-      <c r="B740" s="9" t="s">
+      <c r="B740" s="10" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="741" ht="17.55" spans="1:2">
-      <c r="A741" s="8" t="s">
+      <c r="A741" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="B741" s="8" t="s">
+      <c r="B741" s="9" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="742" ht="17.55" spans="1:2">
-      <c r="A742" s="9" t="s">
+      <c r="A742" s="10" t="s">
         <v>1101</v>
       </c>
-      <c r="B742" s="9" t="s">
+      <c r="B742" s="10" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="743" ht="17.55" spans="1:2">
-      <c r="A743" s="8" t="s">
+      <c r="A743" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="B743" s="8" t="s">
+      <c r="B743" s="9" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="744" ht="17.55" spans="1:2">
-      <c r="A744" s="9" t="s">
+      <c r="A744" s="10" t="s">
         <v>1104</v>
       </c>
-      <c r="B744" s="9" t="s">
+      <c r="B744" s="10" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="745" ht="17.55" spans="1:2">
-      <c r="A745" s="8" t="s">
+      <c r="A745" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="B745" s="8" t="s">
+      <c r="B745" s="9" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="746" ht="17.55" spans="1:2">
-      <c r="A746" s="9" t="s">
+      <c r="A746" s="10" t="s">
         <v>1107</v>
       </c>
-      <c r="B746" s="9" t="s">
+      <c r="B746" s="10" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="747" ht="32.75" spans="1:2">
-      <c r="A747" s="8" t="s">
+      <c r="A747" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="B747" s="8" t="s">
+      <c r="B747" s="9" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="748" ht="17.55" spans="1:2">
-      <c r="A748" s="9" t="s">
+      <c r="A748" s="10" t="s">
         <v>1110</v>
       </c>
-      <c r="B748" s="9" t="s">
+      <c r="B748" s="10" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="749" ht="17.55" spans="1:2">
-      <c r="A749" s="8" t="s">
+      <c r="A749" s="9" t="s">
         <v>1112</v>
       </c>
-      <c r="B749" s="8" t="s">
+      <c r="B749" s="9" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="750" ht="17.55" spans="1:2">
-      <c r="A750" s="9" t="s">
+      <c r="A750" s="10" t="s">
         <v>1113</v>
       </c>
-      <c r="B750" s="9" t="s">
+      <c r="B750" s="10" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="751" ht="17.55" spans="1:2">
-      <c r="A751" s="8" t="s">
+      <c r="A751" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="B751" s="8" t="s">
+      <c r="B751" s="9" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="752" ht="17.55" spans="1:2">
-      <c r="A752" s="9" t="s">
+      <c r="A752" s="10" t="s">
         <v>1116</v>
       </c>
-      <c r="B752" s="9" t="s">
+      <c r="B752" s="10" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="753" ht="17.55" spans="1:2">
-      <c r="A753" s="8" t="s">
+      <c r="A753" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="B753" s="8" t="s">
+      <c r="B753" s="9" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="754" ht="17.55" spans="1:2">
-      <c r="A754" s="9" t="s">
+      <c r="A754" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="B754" s="9" t="s">
+      <c r="B754" s="10" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="755" ht="17.55" spans="1:2">
-      <c r="A755" s="8" t="s">
+      <c r="A755" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="B755" s="8" t="s">
+      <c r="B755" s="9" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="756" ht="17.55" spans="1:2">
-      <c r="A756" s="9" t="s">
+      <c r="A756" s="10" t="s">
         <v>1122</v>
       </c>
-      <c r="B756" s="9" t="s">
+      <c r="B756" s="10" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="757" ht="17.55" spans="1:2">
-      <c r="A757" s="8" t="s">
+      <c r="A757" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="B757" s="8" t="s">
+      <c r="B757" s="9" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="758" ht="17.55" spans="1:2">
-      <c r="A758" s="9" t="s">
+      <c r="A758" s="10" t="s">
         <v>1125</v>
       </c>
-      <c r="B758" s="9" t="s">
+      <c r="B758" s="10" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="759" ht="17.55" spans="1:2">
-      <c r="A759" s="8" t="s">
+      <c r="A759" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="B759" s="8" t="s">
+      <c r="B759" s="9" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="760" ht="17.55" spans="1:2">
-      <c r="A760" s="9" t="s">
+      <c r="A760" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="B760" s="9" t="s">
+      <c r="B760" s="10" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="761" ht="32.75" spans="1:2">
-      <c r="A761" s="8" t="s">
+      <c r="A761" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="B761" s="8" t="s">
+      <c r="B761" s="9" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="762" ht="17.55" spans="1:2">
-      <c r="A762" s="9" t="s">
+      <c r="A762" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="B762" s="9" t="s">
+      <c r="B762" s="10" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="763" ht="17.55" spans="1:2">
-      <c r="A763" s="8" t="s">
+      <c r="A763" s="9" t="s">
         <v>1130</v>
       </c>
-      <c r="B763" s="8" t="s">
+      <c r="B763" s="9" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="764" ht="17.55" spans="1:2">
-      <c r="A764" s="9" t="s">
+      <c r="A764" s="10" t="s">
         <v>1131</v>
       </c>
-      <c r="B764" s="9" t="s">
+      <c r="B764" s="10" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="765" ht="17.55" spans="1:2">
-      <c r="A765" s="8" t="s">
+      <c r="A765" s="9" t="s">
         <v>1133</v>
       </c>
-      <c r="B765" s="8" t="s">
+      <c r="B765" s="9" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="766" ht="17.55" spans="1:2">
-      <c r="A766" s="9" t="s">
+      <c r="A766" s="10" t="s">
         <v>1134</v>
       </c>
-      <c r="B766" s="9" t="s">
+      <c r="B766" s="10" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="767" ht="17.55" spans="1:2">
-      <c r="A767" s="8" t="s">
+      <c r="A767" s="9" t="s">
         <v>1136</v>
       </c>
-      <c r="B767" s="8" t="s">
+      <c r="B767" s="9" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="768" ht="17.55" spans="1:2">
-      <c r="A768" s="9" t="s">
+      <c r="A768" s="10" t="s">
         <v>1137</v>
       </c>
-      <c r="B768" s="9" t="s">
+      <c r="B768" s="10" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="769" ht="17.55" spans="1:2">
-      <c r="A769" s="8" t="s">
+      <c r="A769" s="9" t="s">
         <v>1139</v>
       </c>
-      <c r="B769" s="8" t="s">
+      <c r="B769" s="9" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="770" ht="17.55" spans="1:2">
-      <c r="A770" s="9" t="s">
+      <c r="A770" s="10" t="s">
         <v>1140</v>
       </c>
-      <c r="B770" s="9" t="s">
+      <c r="B770" s="10" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="771" ht="17.55" spans="1:2">
-      <c r="A771" s="8" t="s">
+      <c r="A771" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="B771" s="8" t="s">
+      <c r="B771" s="9" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="772" ht="17.55" spans="1:2">
-      <c r="A772" s="9" t="s">
+      <c r="A772" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="B772" s="9" t="s">
+      <c r="B772" s="10" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="773" ht="17.55" spans="1:2">
-      <c r="A773" s="8" t="s">
+      <c r="A773" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="B773" s="8" t="s">
+      <c r="B773" s="9" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="774" ht="17.55" spans="1:2">
-      <c r="A774" s="9" t="s">
+      <c r="A774" s="10" t="s">
         <v>1146</v>
       </c>
-      <c r="B774" s="9" t="s">
+      <c r="B774" s="10" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="775" ht="17.55" spans="1:2">
-      <c r="A775" s="8" t="s">
+      <c r="A775" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="B775" s="8" t="s">
+      <c r="B775" s="9" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="776" ht="17.55" spans="1:2">
-      <c r="A776" s="9" t="s">
+      <c r="A776" s="10" t="s">
         <v>1149</v>
       </c>
-      <c r="B776" s="9" t="s">
+      <c r="B776" s="10" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="777" ht="17.55" spans="1:2">
-      <c r="A777" s="8" t="s">
+      <c r="A777" s="9" t="s">
         <v>1151</v>
       </c>
-      <c r="B777" s="8" t="s">
+      <c r="B777" s="9" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="778" ht="17.55" spans="1:2">
-      <c r="A778" s="9" t="s">
+      <c r="A778" s="10" t="s">
         <v>1152</v>
       </c>
-      <c r="B778" s="9" t="s">
+      <c r="B778" s="10" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="779" ht="17.55" spans="1:2">
-      <c r="A779" s="8" t="s">
+      <c r="A779" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="B779" s="8" t="s">
+      <c r="B779" s="9" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="780" ht="17.55" spans="1:2">
-      <c r="A780" s="9" t="s">
+      <c r="A780" s="10" t="s">
         <v>1155</v>
       </c>
-      <c r="B780" s="9" t="s">
+      <c r="B780" s="10" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="781" ht="17.55" spans="1:2">
-      <c r="A781" s="8" t="s">
+      <c r="A781" s="9" t="s">
         <v>1157</v>
       </c>
-      <c r="B781" s="8" t="s">
+      <c r="B781" s="9" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="782" ht="17.55" spans="1:2">
-      <c r="A782" s="9" t="s">
+      <c r="A782" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="B782" s="9" t="s">
+      <c r="B782" s="10" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="783" ht="17.55" spans="1:2">
-      <c r="A783" s="8" t="s">
+      <c r="A783" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="B783" s="8" t="s">
+      <c r="B783" s="9" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="784" ht="17.55" spans="1:2">
-      <c r="A784" s="9" t="s">
+      <c r="A784" s="10" t="s">
         <v>1161</v>
       </c>
-      <c r="B784" s="9" t="s">
+      <c r="B784" s="10" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="785" ht="17.55" spans="1:2">
-      <c r="A785" s="8" t="s">
+      <c r="A785" s="9" t="s">
         <v>1163</v>
       </c>
-      <c r="B785" s="8" t="s">
+      <c r="B785" s="9" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="786" ht="17.55" spans="1:2">
-      <c r="A786" s="9" t="s">
+      <c r="A786" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B786" s="9" t="s">
+      <c r="B786" s="10" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="787" ht="32.75" spans="1:2">
-      <c r="A787" s="8" t="s">
+      <c r="A787" s="9" t="s">
         <v>1166</v>
       </c>
-      <c r="B787" s="8" t="s">
+      <c r="B787" s="9" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="788" ht="17.55" spans="1:2">
-      <c r="A788" s="9" t="s">
+      <c r="A788" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="B788" s="9" t="s">
+      <c r="B788" s="10" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="789" ht="17.55" spans="1:2">
-      <c r="A789" s="8" t="s">
+      <c r="A789" s="9" t="s">
         <v>1169</v>
       </c>
-      <c r="B789" s="8" t="s">
+      <c r="B789" s="9" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="790" ht="17.55" spans="1:2">
-      <c r="A790" s="9" t="s">
+      <c r="A790" s="10" t="s">
         <v>1170</v>
       </c>
-      <c r="B790" s="9" t="s">
+      <c r="B790" s="10" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="791" ht="17.55" spans="1:2">
-      <c r="A791" s="8" t="s">
+      <c r="A791" s="9" t="s">
         <v>1172</v>
       </c>
-      <c r="B791" s="8" t="s">
+      <c r="B791" s="9" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="792" ht="17.55" spans="1:2">
-      <c r="A792" s="9" t="s">
+      <c r="A792" s="10" t="s">
         <v>1173</v>
       </c>
-      <c r="B792" s="9" t="s">
+      <c r="B792" s="10" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="793" ht="17.55" spans="1:2">
-      <c r="A793" s="8" t="s">
+      <c r="A793" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="B793" s="8" t="s">
+      <c r="B793" s="9" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="794" ht="17.55" spans="1:2">
-      <c r="A794" s="9" t="s">
+      <c r="A794" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="B794" s="9" t="s">
+      <c r="B794" s="10" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="795" ht="17.55" spans="1:2">
-      <c r="A795" s="8" t="s">
+      <c r="A795" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="B795" s="8" t="s">
+      <c r="B795" s="9" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="796" ht="17.55" spans="1:2">
-      <c r="A796" s="9" t="s">
+      <c r="A796" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="B796" s="9" t="s">
+      <c r="B796" s="10" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="797" ht="17.55" spans="1:2">
-      <c r="A797" s="8" t="s">
+      <c r="A797" s="9" t="s">
         <v>1178</v>
       </c>
-      <c r="B797" s="8" t="s">
+      <c r="B797" s="9" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="798" ht="17.55" spans="1:2">
-      <c r="A798" s="9" t="s">
+      <c r="A798" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="B798" s="9" t="s">
+      <c r="B798" s="10" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="799" ht="17.55" spans="1:2">
-      <c r="A799" s="8" t="s">
+      <c r="A799" s="9" t="s">
         <v>1181</v>
       </c>
-      <c r="B799" s="8" t="s">
+      <c r="B799" s="9" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="800" ht="17.55" spans="1:2">
-      <c r="A800" s="9" t="s">
+      <c r="A800" s="10" t="s">
         <v>1182</v>
       </c>
-      <c r="B800" s="9" t="s">
+      <c r="B800" s="10" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="801" ht="17.55" spans="1:2">
-      <c r="A801" s="8" t="s">
+      <c r="A801" s="9" t="s">
         <v>1184</v>
       </c>
-      <c r="B801" s="8" t="s">
+      <c r="B801" s="9" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="802" ht="17.55" spans="1:2">
-      <c r="A802" s="9" t="s">
+      <c r="A802" s="10" t="s">
         <v>1185</v>
       </c>
-      <c r="B802" s="9" t="s">
+      <c r="B802" s="10" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="803" ht="17.55" spans="1:2">
-      <c r="A803" s="8" t="s">
+      <c r="A803" s="9" t="s">
         <v>1187</v>
       </c>
-      <c r="B803" s="8" t="s">
+      <c r="B803" s="9" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="804" ht="17.55" spans="1:2">
-      <c r="A804" s="9" t="s">
+      <c r="A804" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="B804" s="9" t="s">
+      <c r="B804" s="10" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="805" ht="17.55" spans="1:2">
-      <c r="A805" s="8" t="s">
+      <c r="A805" s="9" t="s">
         <v>1190</v>
       </c>
-      <c r="B805" s="8" t="s">
+      <c r="B805" s="9" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="806" ht="17.55" spans="1:2">
-      <c r="A806" s="9" t="s">
+      <c r="A806" s="10" t="s">
         <v>1191</v>
       </c>
-      <c r="B806" s="9" t="s">
+      <c r="B806" s="10" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="807" ht="17.55" spans="1:2">
-      <c r="A807" s="8" t="s">
+      <c r="A807" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="B807" s="8" t="s">
+      <c r="B807" s="9" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="808" ht="17.55" spans="1:2">
-      <c r="A808" s="9" t="s">
+      <c r="A808" s="10" t="s">
         <v>1194</v>
       </c>
-      <c r="B808" s="9" t="s">
+      <c r="B808" s="10" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="809" ht="17.55" spans="1:2">
-      <c r="A809" s="8" t="s">
+      <c r="A809" s="9" t="s">
         <v>1196</v>
       </c>
-      <c r="B809" s="8" t="s">
+      <c r="B809" s="9" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="810" ht="17.55" spans="1:2">
-      <c r="A810" s="9" t="s">
+      <c r="A810" s="10" t="s">
         <v>1197</v>
       </c>
-      <c r="B810" s="9" t="s">
+      <c r="B810" s="10" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="811" ht="17.55" spans="1:2">
-      <c r="A811" s="8" t="s">
+      <c r="A811" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="B811" s="8" t="s">
+      <c r="B811" s="9" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="812" ht="17.55" spans="1:2">
-      <c r="A812" s="9" t="s">
+      <c r="A812" s="10" t="s">
         <v>1200</v>
       </c>
-      <c r="B812" s="9" t="s">
+      <c r="B812" s="10" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="813" ht="17.55" spans="1:2">
-      <c r="A813" s="8" t="s">
+      <c r="A813" s="9" t="s">
         <v>1202</v>
       </c>
-      <c r="B813" s="8" t="s">
+      <c r="B813" s="9" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="814" ht="17.55" spans="1:2">
-      <c r="A814" s="9" t="s">
+      <c r="A814" s="10" t="s">
         <v>1203</v>
       </c>
-      <c r="B814" s="9" t="s">
+      <c r="B814" s="10" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="815" ht="17.55" spans="1:2">
-      <c r="A815" s="8" t="s">
+      <c r="A815" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="B815" s="8" t="s">
+      <c r="B815" s="9" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="816" ht="17.55" spans="1:2">
-      <c r="A816" s="9" t="s">
+      <c r="A816" s="10" t="s">
         <v>1206</v>
       </c>
-      <c r="B816" s="9" t="s">
+      <c r="B816" s="10" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="817" ht="17.55" spans="1:2">
-      <c r="A817" s="8" t="s">
+      <c r="A817" s="9" t="s">
         <v>1208</v>
       </c>
-      <c r="B817" s="8" t="s">
+      <c r="B817" s="9" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="818" ht="17.55" spans="1:2">
-      <c r="A818" s="9" t="s">
+      <c r="A818" s="10" t="s">
         <v>1209</v>
       </c>
-      <c r="B818" s="9" t="s">
+      <c r="B818" s="10" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="819" ht="17.55" spans="1:2">
-      <c r="A819" s="8" t="s">
+      <c r="A819" s="9" t="s">
         <v>1211</v>
       </c>
-      <c r="B819" s="8" t="s">
+      <c r="B819" s="9" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="820" ht="17.55" spans="1:2">
-      <c r="A820" s="9" t="s">
+      <c r="A820" s="10" t="s">
         <v>1212</v>
       </c>
-      <c r="B820" s="9" t="s">
+      <c r="B820" s="10" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="821" ht="17.55" spans="1:2">
-      <c r="A821" s="8" t="s">
+      <c r="A821" s="9" t="s">
         <v>1214</v>
       </c>
-      <c r="B821" s="8" t="s">
+      <c r="B821" s="9" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="822" ht="17.55" spans="1:2">
-      <c r="A822" s="9" t="s">
+      <c r="A822" s="10" t="s">
         <v>1215</v>
       </c>
-      <c r="B822" s="9" t="s">
+      <c r="B822" s="10" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="823" ht="17.55" spans="1:2">
-      <c r="A823" s="8" t="s">
+      <c r="A823" s="9" t="s">
         <v>1217</v>
       </c>
-      <c r="B823" s="8" t="s">
+      <c r="B823" s="9" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="824" ht="17.55" spans="1:2">
-      <c r="A824" s="9" t="s">
+      <c r="A824" s="10" t="s">
         <v>1218</v>
       </c>
-      <c r="B824" s="9" t="s">
+      <c r="B824" s="10" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="825" ht="17.55" spans="1:2">
-      <c r="A825" s="8" t="s">
+      <c r="A825" s="9" t="s">
         <v>1220</v>
       </c>
-      <c r="B825" s="8" t="s">
+      <c r="B825" s="9" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="826" ht="17.55" spans="1:2">
-      <c r="A826" s="9" t="s">
+      <c r="A826" s="10" t="s">
         <v>1221</v>
       </c>
-      <c r="B826" s="9" t="s">
+      <c r="B826" s="10" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="827" ht="17.55" spans="1:2">
-      <c r="A827" s="8" t="s">
+      <c r="A827" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="B827" s="8" t="s">
+      <c r="B827" s="9" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="828" ht="17.55" spans="1:2">
-      <c r="A828" s="9" t="s">
+      <c r="A828" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="B828" s="9" t="s">
+      <c r="B828" s="10" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="829" ht="17.55" spans="1:2">
-      <c r="A829" s="8" t="s">
+      <c r="A829" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="B829" s="8" t="s">
+      <c r="B829" s="9" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="830" ht="17.55" spans="1:2">
-      <c r="A830" s="9" t="s">
+      <c r="A830" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="B830" s="9" t="s">
+      <c r="B830" s="10" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="831" ht="17.55" spans="1:2">
-      <c r="A831" s="8" t="s">
+      <c r="A831" s="9" t="s">
         <v>1229</v>
       </c>
-      <c r="B831" s="8" t="s">
+      <c r="B831" s="9" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="832" ht="17.55" spans="1:2">
-      <c r="A832" s="9" t="s">
+      <c r="A832" s="10" t="s">
         <v>1230</v>
       </c>
-      <c r="B832" s="9" t="s">
+      <c r="B832" s="10" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="833" ht="17.55" spans="1:2">
-      <c r="A833" s="8" t="s">
+      <c r="A833" s="9" t="s">
         <v>1232</v>
       </c>
-      <c r="B833" s="8" t="s">
+      <c r="B833" s="9" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="834" ht="17.55" spans="1:2">
-      <c r="A834" s="9" t="s">
+      <c r="A834" s="10" t="s">
         <v>1233</v>
       </c>
-      <c r="B834" s="9" t="s">
+      <c r="B834" s="10" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="835" ht="17.55" spans="1:2">
-      <c r="A835" s="8" t="s">
+      <c r="A835" s="9" t="s">
         <v>1235</v>
       </c>
-      <c r="B835" s="8" t="s">
+      <c r="B835" s="9" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="836" ht="17.55" spans="1:2">
-      <c r="A836" s="9" t="s">
+      <c r="A836" s="10" t="s">
         <v>1236</v>
       </c>
-      <c r="B836" s="9" t="s">
+      <c r="B836" s="10" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="837" ht="17.55" spans="1:2">
-      <c r="A837" s="10" t="s">
+      <c r="A837" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="B837" s="10" t="s">
+      <c r="B837" s="11" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="838" ht="17.55" spans="1:2">
-      <c r="A838" s="11" t="s">
+      <c r="A838" s="12" t="s">
         <v>1239</v>
       </c>
-      <c r="B838" s="11" t="s">
+      <c r="B838" s="12" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="839" ht="17.55" spans="1:2">
-      <c r="A839" s="10" t="s">
+      <c r="A839" s="11" t="s">
         <v>1241</v>
       </c>
-      <c r="B839" s="10" t="s">
+      <c r="B839" s="11" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="840" ht="17.55" spans="1:2">
-      <c r="A840" s="11" t="s">
+      <c r="A840" s="12" t="s">
         <v>1242</v>
       </c>
-      <c r="B840" s="11" t="s">
+      <c r="B840" s="12" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="841" ht="32.75" spans="1:2">
-      <c r="A841" s="10" t="s">
+      <c r="A841" s="11" t="s">
         <v>1244</v>
       </c>
-      <c r="B841" s="10" t="s">
+      <c r="B841" s="11" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="842" ht="17.55" spans="1:2">
-      <c r="A842" s="11" t="s">
+      <c r="A842" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="B842" s="11" t="s">
+      <c r="B842" s="12" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="843" ht="17.55" spans="1:2">
-      <c r="A843" s="10" t="s">
+      <c r="A843" s="11" t="s">
         <v>1247</v>
       </c>
-      <c r="B843" s="10" t="s">
+      <c r="B843" s="11" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="844" ht="17.55" spans="1:2">
-      <c r="A844" s="11" t="s">
+      <c r="A844" s="12" t="s">
         <v>1248</v>
       </c>
-      <c r="B844" s="11" t="s">
+      <c r="B844" s="12" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="845" ht="17.55" spans="1:2">
-      <c r="A845" s="10" t="s">
+      <c r="A845" s="11" t="s">
         <v>1250</v>
       </c>
-      <c r="B845" s="10" t="s">
+      <c r="B845" s="11" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="846" ht="17.55" spans="1:2">
-      <c r="A846" s="11" t="s">
+      <c r="A846" s="12" t="s">
         <v>1251</v>
       </c>
-      <c r="B846" s="11" t="s">
+      <c r="B846" s="12" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="847" ht="32.75" spans="1:2">
-      <c r="A847" s="10" t="s">
+      <c r="A847" s="11" t="s">
         <v>1253</v>
       </c>
-      <c r="B847" s="10" t="s">
+      <c r="B847" s="11" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="848" ht="17.55" spans="1:2">
-      <c r="A848" s="11" t="s">
+      <c r="A848" s="12" t="s">
         <v>1254</v>
       </c>
-      <c r="B848" s="11" t="s">
+      <c r="B848" s="12" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="849" ht="17.55" spans="1:2">
-      <c r="A849" s="10" t="s">
+      <c r="A849" s="11" t="s">
         <v>1256</v>
       </c>
-      <c r="B849" s="10" t="s">
+      <c r="B849" s="11" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="850" ht="17.55" spans="1:2">
-      <c r="A850" s="11" t="s">
+      <c r="A850" s="12" t="s">
         <v>1257</v>
       </c>
-      <c r="B850" s="11" t="s">
+      <c r="B850" s="12" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="851" ht="17.55" spans="1:2">
-      <c r="A851" s="10" t="s">
+      <c r="A851" s="11" t="s">
         <v>1259</v>
       </c>
-      <c r="B851" s="10" t="s">
+      <c r="B851" s="11" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="852" ht="17.55" spans="1:2">
-      <c r="A852" s="11" t="s">
+      <c r="A852" s="12" t="s">
         <v>1260</v>
       </c>
-      <c r="B852" s="11" t="s">
+      <c r="B852" s="12" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="853" ht="17.55" spans="1:2">
-      <c r="A853" s="10" t="s">
+      <c r="A853" s="11" t="s">
         <v>1262</v>
       </c>
-      <c r="B853" s="10" t="s">
+      <c r="B853" s="11" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="854" ht="17.55" spans="1:2">
-      <c r="A854" s="11" t="s">
+      <c r="A854" s="12" t="s">
         <v>1263</v>
       </c>
-      <c r="B854" s="11" t="s">
+      <c r="B854" s="12" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="855" ht="17.55" spans="1:2">
-      <c r="A855" s="10" t="s">
+      <c r="A855" s="11" t="s">
         <v>1265</v>
       </c>
-      <c r="B855" s="10" t="s">
+      <c r="B855" s="11" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="856" ht="17.55" spans="1:2">
-      <c r="A856" s="11" t="s">
+      <c r="A856" s="12" t="s">
         <v>1266</v>
       </c>
-      <c r="B856" s="11" t="s">
+      <c r="B856" s="12" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="857" ht="17.55" spans="1:2">
-      <c r="A857" s="10" t="s">
+      <c r="A857" s="11" t="s">
         <v>1268</v>
       </c>
-      <c r="B857" s="10" t="s">
+      <c r="B857" s="11" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="858" ht="17.55" spans="1:2">
-      <c r="A858" s="11" t="s">
+      <c r="A858" s="12" t="s">
         <v>1269</v>
       </c>
-      <c r="B858" s="11" t="s">
+      <c r="B858" s="12" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="859" ht="17.55" spans="1:2">
-      <c r="A859" s="10" t="s">
+      <c r="A859" s="11" t="s">
         <v>1271</v>
       </c>
-      <c r="B859" s="10" t="s">
+      <c r="B859" s="11" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="860" ht="17.55" spans="1:2">
-      <c r="A860" s="11" t="s">
+      <c r="A860" s="12" t="s">
         <v>1272</v>
       </c>
-      <c r="B860" s="11" t="s">
+      <c r="B860" s="12" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="861" ht="17.55" spans="1:2">
-      <c r="A861" s="10" t="s">
+      <c r="A861" s="11" t="s">
         <v>1274</v>
       </c>
-      <c r="B861" s="10" t="s">
+      <c r="B861" s="11" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="862" ht="17.55" spans="1:2">
-      <c r="A862" s="11" t="s">
+      <c r="A862" s="12" t="s">
         <v>1275</v>
       </c>
-      <c r="B862" s="11" t="s">
+      <c r="B862" s="12" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="863" ht="17.55" spans="1:2">
-      <c r="A863" s="10" t="s">
+      <c r="A863" s="11" t="s">
         <v>1277</v>
       </c>
-      <c r="B863" s="10" t="s">
+      <c r="B863" s="11" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="864" ht="17.55" spans="1:2">
-      <c r="A864" s="11" t="s">
+      <c r="A864" s="12" t="s">
         <v>1278</v>
       </c>
-      <c r="B864" s="11" t="s">
+      <c r="B864" s="12" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="865" ht="32.75" spans="1:2">
-      <c r="A865" s="10" t="s">
+      <c r="A865" s="11" t="s">
         <v>1280</v>
       </c>
-      <c r="B865" s="10" t="s">
+      <c r="B865" s="11" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="866" ht="17.55" spans="1:2">
-      <c r="A866" s="11" t="s">
+      <c r="A866" s="12" t="s">
         <v>1281</v>
       </c>
-      <c r="B866" s="11" t="s">
+      <c r="B866" s="12" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="867" ht="17.55" spans="1:2">
-      <c r="A867" s="10" t="s">
+      <c r="A867" s="11" t="s">
         <v>1283</v>
       </c>
-      <c r="B867" s="10" t="s">
+      <c r="B867" s="11" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="868" ht="17.55" spans="1:2">
-      <c r="A868" s="11" t="s">
+      <c r="A868" s="12" t="s">
         <v>1284</v>
       </c>
-      <c r="B868" s="11" t="s">
+      <c r="B868" s="12" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="869" ht="17.55" spans="1:2">
-      <c r="A869" s="10" t="s">
+      <c r="A869" s="11" t="s">
         <v>1286</v>
       </c>
-      <c r="B869" s="10" t="s">
+      <c r="B869" s="11" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="870" ht="17.55" spans="1:2">
-      <c r="A870" s="11" t="s">
+      <c r="A870" s="12" t="s">
         <v>1287</v>
       </c>
-      <c r="B870" s="11" t="s">
+      <c r="B870" s="12" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="871" ht="32.75" spans="1:2">
-      <c r="A871" s="10" t="s">
+      <c r="A871" s="11" t="s">
         <v>1289</v>
       </c>
-      <c r="B871" s="10" t="s">
+      <c r="B871" s="11" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="11" t="s">
+    <row r="872" ht="17.55" spans="1:2">
+      <c r="A872" s="12" t="s">
         <v>1290</v>
       </c>
-      <c r="B872" s="11" t="s">
+      <c r="B872" s="12" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="873" ht="17.55" spans="1:2">
-      <c r="A873" s="10" t="s">
+      <c r="A873" s="11" t="s">
         <v>1292</v>
       </c>
-      <c r="B873" s="10" t="s">
+      <c r="B873" s="11" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="874" ht="17.55" spans="1:2">
-      <c r="A874" s="11" t="s">
+      <c r="A874" s="12" t="s">
         <v>1293</v>
       </c>
-      <c r="B874" s="11" t="s">
+      <c r="B874" s="12" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="875" ht="17.55" spans="1:2">
-      <c r="A875" s="10" t="s">
+      <c r="A875" s="11" t="s">
         <v>1295</v>
       </c>
-      <c r="B875" s="10" t="s">
+      <c r="B875" s="11" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="876" ht="17.55" spans="1:2">
-      <c r="A876" s="11" t="s">
+      <c r="A876" s="12" t="s">
         <v>1296</v>
       </c>
-      <c r="B876" s="11" t="s">
+      <c r="B876" s="12" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="877" ht="32.75" spans="1:2">
-      <c r="A877" s="10" t="s">
+      <c r="A877" s="11" t="s">
         <v>1298</v>
       </c>
-      <c r="B877" s="10" t="s">
+      <c r="B877" s="11" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="878" ht="17.55" spans="1:2">
-      <c r="A878" s="11" t="s">
+      <c r="A878" s="12" t="s">
         <v>1299</v>
       </c>
-      <c r="B878" s="11" t="s">
+      <c r="B878" s="12" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="879" ht="17.55" spans="1:2">
-      <c r="A879" s="10" t="s">
+      <c r="A879" s="11" t="s">
         <v>1301</v>
       </c>
-      <c r="B879" s="10" t="s">
+      <c r="B879" s="11" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="880" ht="17.55" spans="1:2">
-      <c r="A880" s="11" t="s">
+      <c r="A880" s="12" t="s">
         <v>1302</v>
       </c>
-      <c r="B880" s="11" t="s">
+      <c r="B880" s="12" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="881" ht="17.55" spans="1:2">
-      <c r="A881" s="10" t="s">
+      <c r="A881" s="11" t="s">
         <v>1304</v>
       </c>
-      <c r="B881" s="10" t="s">
+      <c r="B881" s="11" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="882" ht="17.55" spans="1:2">
-      <c r="A882" s="11" t="s">
+      <c r="A882" s="12" t="s">
         <v>1305</v>
       </c>
-      <c r="B882" s="11" t="s">
+      <c r="B882" s="12" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="883" ht="17.55" spans="1:2">
-      <c r="A883" s="10" t="s">
+      <c r="A883" s="11" t="s">
         <v>1307</v>
       </c>
-      <c r="B883" s="10" t="s">
+      <c r="B883" s="11" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="884" ht="17.55" spans="1:2">
-      <c r="A884" s="11" t="s">
+      <c r="A884" s="12" t="s">
         <v>1308</v>
       </c>
-      <c r="B884" s="11" t="s">
+      <c r="B884" s="12" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="885" ht="17.55" spans="1:2">
-      <c r="A885" s="10" t="s">
+      <c r="A885" s="11" t="s">
         <v>1310</v>
       </c>
-      <c r="B885" s="10" t="s">
+      <c r="B885" s="11" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="886" ht="17.55" spans="1:2">
-      <c r="A886" s="11" t="s">
+      <c r="A886" s="12" t="s">
         <v>1311</v>
       </c>
-      <c r="B886" s="11" t="s">
+      <c r="B886" s="12" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="887" ht="17.55" spans="1:2">
-      <c r="A887" s="10" t="s">
+      <c r="A887" s="11" t="s">
         <v>1313</v>
       </c>
-      <c r="B887" s="10" t="s">
+      <c r="B887" s="11" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="888" ht="17.55" spans="1:2">
-      <c r="A888" s="11" t="s">
+      <c r="A888" s="12" t="s">
         <v>1314</v>
       </c>
-      <c r="B888" s="11" t="s">
+      <c r="B888" s="12" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="889" ht="17.55" spans="1:2">
-      <c r="A889" s="10" t="s">
+      <c r="A889" s="11" t="s">
         <v>1316</v>
       </c>
-      <c r="B889" s="10" t="s">
+      <c r="B889" s="11" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="890" ht="17.55" spans="1:2">
-      <c r="A890" s="11" t="s">
+      <c r="A890" s="12" t="s">
         <v>1317</v>
       </c>
-      <c r="B890" s="11" t="s">
+      <c r="B890" s="12" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="891" ht="17.55" spans="1:2">
-      <c r="A891" s="10" t="s">
+      <c r="A891" s="11" t="s">
         <v>1319</v>
       </c>
-      <c r="B891" s="10" t="s">
+      <c r="B891" s="11" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="892" ht="17.55" spans="1:2">
-      <c r="A892" s="11" t="s">
+      <c r="A892" s="12" t="s">
         <v>1320</v>
       </c>
-      <c r="B892" s="11" t="s">
+      <c r="B892" s="12" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="893" ht="17.55" spans="1:2">
-      <c r="A893" s="10" t="s">
+      <c r="A893" s="11" t="s">
         <v>1322</v>
       </c>
-      <c r="B893" s="10" t="s">
+      <c r="B893" s="11" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="894" ht="17.55" spans="1:2">
-      <c r="A894" s="11" t="s">
+      <c r="A894" s="12" t="s">
         <v>1323</v>
       </c>
-      <c r="B894" s="11" t="s">
+      <c r="B894" s="12" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="895" ht="17.55" spans="1:2">
-      <c r="A895" s="10" t="s">
+      <c r="A895" s="11" t="s">
         <v>1325</v>
       </c>
-      <c r="B895" s="10" t="s">
+      <c r="B895" s="11" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="896" ht="17.55" spans="1:2">
-      <c r="A896" s="11" t="s">
+      <c r="A896" s="12" t="s">
         <v>1326</v>
       </c>
-      <c r="B896" s="11" t="s">
+      <c r="B896" s="12" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="897" ht="17.55" spans="1:2">
-      <c r="A897" s="10" t="s">
+      <c r="A897" s="11" t="s">
         <v>1328</v>
       </c>
-      <c r="B897" s="10" t="s">
+      <c r="B897" s="11" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="898" ht="17.55" spans="1:2">
-      <c r="A898" s="11" t="s">
+      <c r="A898" s="12" t="s">
         <v>1329</v>
       </c>
-      <c r="B898" s="11" t="s">
+      <c r="B898" s="12" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="899" ht="17.55" spans="1:2">
-      <c r="A899" s="10" t="s">
+      <c r="A899" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="B899" s="10" t="s">
+      <c r="B899" s="11" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="900" ht="17.55" spans="1:2">
-      <c r="A900" s="11" t="s">
+      <c r="A900" s="12" t="s">
         <v>1332</v>
       </c>
-      <c r="B900" s="11" t="s">
+      <c r="B900" s="12" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="901" ht="17.55" spans="1:2">
-      <c r="A901" s="10" t="s">
+      <c r="A901" s="11" t="s">
         <v>1334</v>
       </c>
-      <c r="B901" s="10" t="s">
+      <c r="B901" s="11" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="902" ht="17.55" spans="1:2">
-      <c r="A902" s="11" t="s">
+      <c r="A902" s="12" t="s">
         <v>1335</v>
       </c>
-      <c r="B902" s="11" t="s">
+      <c r="B902" s="12" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="903" ht="17.55" spans="1:2">
-      <c r="A903" s="10" t="s">
+      <c r="A903" s="11" t="s">
         <v>1337</v>
       </c>
-      <c r="B903" s="10" t="s">
+      <c r="B903" s="11" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="904" ht="17.55" spans="1:2">
-      <c r="A904" s="11" t="s">
+      <c r="A904" s="12" t="s">
         <v>1338</v>
       </c>
-      <c r="B904" s="11" t="s">
+      <c r="B904" s="12" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="905" ht="17.55" spans="1:2">
-      <c r="A905" s="10" t="s">
+      <c r="A905" s="11" t="s">
         <v>1340</v>
       </c>
-      <c r="B905" s="10" t="s">
+      <c r="B905" s="11" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="906" ht="17.55" spans="1:2">
-      <c r="A906" s="11" t="s">
+      <c r="A906" s="12" t="s">
         <v>1341</v>
       </c>
-      <c r="B906" s="11" t="s">
+      <c r="B906" s="12" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="907" ht="17.55" spans="1:2">
-      <c r="A907" s="10" t="s">
+      <c r="A907" s="11" t="s">
         <v>1343</v>
       </c>
-      <c r="B907" s="10" t="s">
+      <c r="B907" s="11" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="908" ht="17.55" spans="1:2">
-      <c r="A908" s="11" t="s">
+      <c r="A908" s="12" t="s">
         <v>1344</v>
       </c>
-      <c r="B908" s="11" t="s">
+      <c r="B908" s="12" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="909" ht="17.55" spans="1:2">
-      <c r="A909" s="10" t="s">
+      <c r="A909" s="11" t="s">
         <v>1346</v>
       </c>
-      <c r="B909" s="10" t="s">
+      <c r="B909" s="11" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="910" ht="17.55" spans="1:2">
-      <c r="A910" s="11" t="s">
+      <c r="A910" s="12" t="s">
         <v>1347</v>
       </c>
-      <c r="B910" s="11" t="s">
+      <c r="B910" s="12" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="911" ht="17.55" spans="1:2">
-      <c r="A911" s="10" t="s">
+      <c r="A911" s="11" t="s">
         <v>1349</v>
       </c>
-      <c r="B911" s="10" t="s">
+      <c r="B911" s="11" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="912" ht="17.55" spans="1:2">
-      <c r="A912" s="11" t="s">
+      <c r="A912" s="12" t="s">
         <v>1350</v>
       </c>
-      <c r="B912" s="11" t="s">
+      <c r="B912" s="12" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="913" ht="17.55" spans="1:2">
-      <c r="A913" s="10" t="s">
+      <c r="A913" s="11" t="s">
         <v>1352</v>
       </c>
-      <c r="B913" s="10" t="s">
+      <c r="B913" s="11" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="914" ht="17.55" spans="1:2">
-      <c r="A914" s="11" t="s">
+      <c r="A914" s="12" t="s">
         <v>1353</v>
       </c>
-      <c r="B914" s="11" t="s">
+      <c r="B914" s="12" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="915" ht="32.75" spans="1:2">
-      <c r="A915" s="10" t="s">
+      <c r="A915" s="11" t="s">
         <v>1355</v>
       </c>
-      <c r="B915" s="10" t="s">
+      <c r="B915" s="11" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="916" ht="17.55" spans="1:2">
-      <c r="A916" s="11" t="s">
+      <c r="A916" s="12" t="s">
         <v>1356</v>
       </c>
-      <c r="B916" s="11" t="s">
+      <c r="B916" s="12" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="917" ht="17.55" spans="1:2">
-      <c r="A917" s="10" t="s">
+      <c r="A917" s="11" t="s">
         <v>1358</v>
       </c>
-      <c r="B917" s="10" t="s">
+      <c r="B917" s="11" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="918" ht="17.55" spans="1:2">
-      <c r="A918" s="11" t="s">
+      <c r="A918" s="12" t="s">
         <v>1359</v>
       </c>
-      <c r="B918" s="11" t="s">
+      <c r="B918" s="12" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="919" ht="17.55" spans="1:2">
-      <c r="A919" s="10" t="s">
+      <c r="A919" s="11" t="s">
         <v>1361</v>
       </c>
-      <c r="B919" s="10" t="s">
+      <c r="B919" s="11" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="920" ht="17.55" spans="1:2">
-      <c r="A920" s="11" t="s">
+      <c r="A920" s="12" t="s">
         <v>1362</v>
       </c>
-      <c r="B920" s="11" t="s">
+      <c r="B920" s="12" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="921" ht="17.55" spans="1:2">
-      <c r="A921" s="10" t="s">
+      <c r="A921" s="11" t="s">
         <v>1364</v>
       </c>
-      <c r="B921" s="10" t="s">
+      <c r="B921" s="11" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="922" ht="17.55" spans="1:2">
-      <c r="A922" s="11" t="s">
+      <c r="A922" s="12" t="s">
         <v>1365</v>
       </c>
-      <c r="B922" s="11" t="s">
+      <c r="B922" s="12" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="923" ht="17.55" spans="1:2">
-      <c r="A923" s="10" t="s">
+      <c r="A923" s="11" t="s">
         <v>1367</v>
       </c>
-      <c r="B923" s="10" t="s">
+      <c r="B923" s="11" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="924" ht="17.55" spans="1:2">
-      <c r="A924" s="11" t="s">
+      <c r="A924" s="12" t="s">
         <v>1368</v>
       </c>
-      <c r="B924" s="11" t="s">
+      <c r="B924" s="12" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="925" ht="17.55" spans="1:2">
-      <c r="A925" s="10" t="s">
+      <c r="A925" s="11" t="s">
         <v>1370</v>
       </c>
-      <c r="B925" s="10" t="s">
+      <c r="B925" s="11" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="926" ht="17.55" spans="1:2">
-      <c r="A926" s="11" t="s">
+      <c r="A926" s="12" t="s">
         <v>1371</v>
       </c>
-      <c r="B926" s="11" t="s">
+      <c r="B926" s="12" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="927" ht="17.55" spans="1:2">
-      <c r="A927" s="10" t="s">
+      <c r="A927" s="11" t="s">
         <v>1373</v>
       </c>
-      <c r="B927" s="10" t="s">
+      <c r="B927" s="11" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="928" ht="17.55" spans="1:2">
-      <c r="A928" s="11" t="s">
+      <c r="A928" s="12" t="s">
         <v>1374</v>
       </c>
-      <c r="B928" s="11" t="s">
+      <c r="B928" s="12" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="929" ht="17.55" spans="1:2">
-      <c r="A929" s="10" t="s">
+      <c r="A929" s="11" t="s">
         <v>1376</v>
       </c>
-      <c r="B929" s="10" t="s">
+      <c r="B929" s="11" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="930" ht="17.55" spans="1:2">
-      <c r="A930" s="11" t="s">
+      <c r="A930" s="12" t="s">
         <v>1377</v>
       </c>
-      <c r="B930" s="11" t="s">
+      <c r="B930" s="12" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="931" ht="17.55" spans="1:2">
-      <c r="A931" s="10" t="s">
+      <c r="A931" s="11" t="s">
         <v>1379</v>
       </c>
-      <c r="B931" s="10" t="s">
+      <c r="B931" s="11" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="932" ht="17.55" spans="1:2">
-      <c r="A932" s="11" t="s">
+      <c r="A932" s="12" t="s">
         <v>1380</v>
       </c>
-      <c r="B932" s="11" t="s">
+      <c r="B932" s="12" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="933" ht="17.55" spans="1:2">
-      <c r="A933" s="10" t="s">
+      <c r="A933" s="11" t="s">
         <v>1382</v>
       </c>
-      <c r="B933" s="10" t="s">
+      <c r="B933" s="11" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="934" ht="17.55" spans="1:2">
-      <c r="A934" s="11" t="s">
+      <c r="A934" s="12" t="s">
         <v>1383</v>
       </c>
-      <c r="B934" s="11" t="s">
+      <c r="B934" s="12" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="935" ht="17.55" spans="1:2">
-      <c r="A935" s="10" t="s">
+      <c r="A935" s="11" t="s">
         <v>1385</v>
       </c>
-      <c r="B935" s="10" t="s">
+      <c r="B935" s="11" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="936" ht="17.55" spans="1:2">
-      <c r="A936" s="11" t="s">
+      <c r="A936" s="12" t="s">
         <v>1386</v>
       </c>
-      <c r="B936" s="11" t="s">
+      <c r="B936" s="12" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="937" ht="17.55" spans="1:2">
-      <c r="A937" s="10" t="s">
+      <c r="A937" s="11" t="s">
         <v>1388</v>
       </c>
-      <c r="B937" s="10" t="s">
+      <c r="B937" s="11" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="938" ht="17.55" spans="1:2">
-      <c r="A938" s="11" t="s">
+      <c r="A938" s="12" t="s">
         <v>1389</v>
       </c>
-      <c r="B938" s="11" t="s">
+      <c r="B938" s="12" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="939" ht="17.55" spans="1:2">
-      <c r="A939" s="10" t="s">
+      <c r="A939" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="B939" s="10" t="s">
+      <c r="B939" s="11" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="940" ht="17.55" spans="1:2">
-      <c r="A940" s="11" t="s">
+      <c r="A940" s="12" t="s">
         <v>1392</v>
       </c>
-      <c r="B940" s="11" t="s">
+      <c r="B940" s="12" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="941" ht="17.55" spans="1:2">
-      <c r="A941" s="10" t="s">
+      <c r="A941" s="11" t="s">
         <v>1394</v>
       </c>
-      <c r="B941" s="10" t="s">
+      <c r="B941" s="11" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="942" ht="17.55" spans="1:2">
-      <c r="A942" s="11" t="s">
+      <c r="A942" s="12" t="s">
         <v>1395</v>
       </c>
-      <c r="B942" s="11" t="s">
+      <c r="B942" s="12" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="943" ht="17.55" spans="1:2">
-      <c r="A943" s="10" t="s">
+      <c r="A943" s="11" t="s">
         <v>1397</v>
       </c>
-      <c r="B943" s="10" t="s">
+      <c r="B943" s="11" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="944" ht="17.55" spans="1:2">
-      <c r="A944" s="11" t="s">
+      <c r="A944" s="12" t="s">
         <v>1398</v>
       </c>
-      <c r="B944" s="11" t="s">
+      <c r="B944" s="12" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="945" ht="17.55" spans="1:2">
-      <c r="A945" s="10" t="s">
+      <c r="A945" s="11" t="s">
         <v>1400</v>
       </c>
-      <c r="B945" s="10" t="s">
+      <c r="B945" s="11" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="946" ht="17.55" spans="1:2">
-      <c r="A946" s="11" t="s">
+      <c r="A946" s="12" t="s">
         <v>1401</v>
       </c>
-      <c r="B946" s="11" t="s">
+      <c r="B946" s="12" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="947" ht="17.55" spans="1:2">
-      <c r="A947" s="10" t="s">
+      <c r="A947" s="11" t="s">
         <v>1403</v>
       </c>
-      <c r="B947" s="10" t="s">
+      <c r="B947" s="11" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="948" ht="17.55" spans="1:2">
-      <c r="A948" s="11" t="s">
+      <c r="A948" s="12" t="s">
         <v>1404</v>
       </c>
-      <c r="B948" s="11" t="s">
+      <c r="B948" s="12" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="949" ht="17.55" spans="1:2">
-      <c r="A949" s="10" t="s">
+      <c r="A949" s="11" t="s">
         <v>1406</v>
       </c>
-      <c r="B949" s="10" t="s">
+      <c r="B949" s="11" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="950" ht="17.55" spans="1:2">
-      <c r="A950" s="11" t="s">
+      <c r="A950" s="12" t="s">
         <v>1407</v>
       </c>
-      <c r="B950" s="11" t="s">
+      <c r="B950" s="12" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="951" ht="17.55" spans="1:2">
-      <c r="A951" s="10" t="s">
+      <c r="A951" s="11" t="s">
         <v>1409</v>
       </c>
-      <c r="B951" s="10" t="s">
+      <c r="B951" s="11" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="952" ht="17.55" spans="1:2">
-      <c r="A952" s="11" t="s">
+      <c r="A952" s="12" t="s">
         <v>1410</v>
       </c>
-      <c r="B952" s="11" t="s">
+      <c r="B952" s="12" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="953" ht="17.55" spans="1:2">
-      <c r="A953" s="10" t="s">
+      <c r="A953" s="11" t="s">
         <v>1412</v>
       </c>
-      <c r="B953" s="10" t="s">
+      <c r="B953" s="11" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="954" ht="17.55" spans="1:2">
-      <c r="A954" s="11" t="s">
+      <c r="A954" s="12" t="s">
         <v>1413</v>
       </c>
-      <c r="B954" s="11" t="s">
+      <c r="B954" s="12" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="955" ht="17.55" spans="1:2">
-      <c r="A955" s="10" t="s">
+      <c r="A955" s="11" t="s">
         <v>1415</v>
       </c>
-      <c r="B955" s="10" t="s">
+      <c r="B955" s="11" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="956" ht="17.55" spans="1:2">
-      <c r="A956" s="11" t="s">
+      <c r="A956" s="12" t="s">
         <v>1416</v>
       </c>
-      <c r="B956" s="11" t="s">
+      <c r="B956" s="12" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="957" ht="17.55" spans="1:2">
-      <c r="A957" s="10" t="s">
+      <c r="A957" s="11" t="s">
         <v>1418</v>
       </c>
-      <c r="B957" s="10" t="s">
+      <c r="B957" s="11" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="958" ht="17.55" spans="1:2">
-      <c r="A958" s="11" t="s">
+      <c r="A958" s="12" t="s">
         <v>1419</v>
       </c>
-      <c r="B958" s="11" t="s">
+      <c r="B958" s="12" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="959" ht="17.55" spans="1:2">
-      <c r="A959" s="10" t="s">
+      <c r="A959" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="B959" s="10" t="s">
+      <c r="B959" s="11" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="960" ht="17.55" spans="1:2">
-      <c r="A960" s="11" t="s">
+      <c r="A960" s="12" t="s">
         <v>1422</v>
       </c>
-      <c r="B960" s="11" t="s">
+      <c r="B960" s="12" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="961" ht="17.55" spans="1:2">
-      <c r="A961" s="10" t="s">
+      <c r="A961" s="11" t="s">
         <v>1424</v>
       </c>
-      <c r="B961" s="10" t="s">
+      <c r="B961" s="11" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="962" ht="17.55" spans="1:2">
-      <c r="A962" s="11" t="s">
+      <c r="A962" s="12" t="s">
         <v>1425</v>
       </c>
-      <c r="B962" s="11" t="s">
+      <c r="B962" s="12" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="963" ht="17.55" spans="1:2">
-      <c r="A963" s="10" t="s">
+      <c r="A963" s="11" t="s">
         <v>1427</v>
       </c>
-      <c r="B963" s="10" t="s">
+      <c r="B963" s="11" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="964" ht="17.55" spans="1:2">
-      <c r="A964" s="11" t="s">
+      <c r="A964" s="12" t="s">
         <v>1428</v>
       </c>
-      <c r="B964" s="11" t="s">
+      <c r="B964" s="12" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="965" ht="17.55" spans="1:2">
-      <c r="A965" s="10" t="s">
+      <c r="A965" s="11" t="s">
         <v>1430</v>
       </c>
-      <c r="B965" s="10" t="s">
+      <c r="B965" s="11" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="966" ht="17.55" spans="1:2">
-      <c r="A966" s="11" t="s">
+      <c r="A966" s="12" t="s">
         <v>1431</v>
       </c>
-      <c r="B966" s="11" t="s">
+      <c r="B966" s="12" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="967" ht="17.55" spans="1:2">
-      <c r="A967" s="10" t="s">
+      <c r="A967" s="11" t="s">
         <v>1433</v>
       </c>
-      <c r="B967" s="10" t="s">
+      <c r="B967" s="11" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="968" ht="17.55" spans="1:2">
-      <c r="A968" s="11" t="s">
+      <c r="A968" s="12" t="s">
         <v>1434</v>
       </c>
-      <c r="B968" s="11" t="s">
+      <c r="B968" s="12" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="969" ht="17.55" spans="1:2">
-      <c r="A969" s="10" t="s">
+      <c r="A969" s="11" t="s">
         <v>1436</v>
       </c>
-      <c r="B969" s="10" t="s">
+      <c r="B969" s="11" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="970" ht="17.55" spans="1:2">
-      <c r="A970" s="11" t="s">
+      <c r="A970" s="12" t="s">
         <v>1437</v>
       </c>
-      <c r="B970" s="11" t="s">
+      <c r="B970" s="12" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="971" ht="17.55" spans="1:2">
-      <c r="A971" s="10" t="s">
+      <c r="A971" s="11" t="s">
         <v>1439</v>
       </c>
-      <c r="B971" s="10" t="s">
+      <c r="B971" s="11" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="972" ht="17.55" spans="1:2">
-      <c r="A972" s="11" t="s">
+      <c r="A972" s="12" t="s">
         <v>1440</v>
       </c>
-      <c r="B972" s="11" t="s">
+      <c r="B972" s="12" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="973" ht="32.75" spans="1:2">
-      <c r="A973" s="10" t="s">
+      <c r="A973" s="11" t="s">
         <v>1442</v>
       </c>
-      <c r="B973" s="10" t="s">
+      <c r="B973" s="11" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="974" ht="17.55" spans="1:2">
-      <c r="A974" s="11" t="s">
+      <c r="A974" s="12" t="s">
         <v>1443</v>
       </c>
-      <c r="B974" s="11" t="s">
+      <c r="B974" s="12" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="975" ht="17.55" spans="1:2">
-      <c r="A975" s="10" t="s">
+      <c r="A975" s="11" t="s">
         <v>1445</v>
       </c>
-      <c r="B975" s="10" t="s">
+      <c r="B975" s="11" t="s">
         <v>1445</v>
       </c>
     </row>
     <row r="976" ht="17.55" spans="1:2">
-      <c r="A976" s="11" t="s">
+      <c r="A976" s="12" t="s">
         <v>1446</v>
       </c>
-      <c r="B976" s="11" t="s">
+      <c r="B976" s="12" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="977" ht="17.55" spans="1:2">
-      <c r="A977" s="10" t="s">
+      <c r="A977" s="11" t="s">
         <v>1448</v>
       </c>
-      <c r="B977" s="10" t="s">
+      <c r="B977" s="11" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="978" ht="17.55" spans="1:2">
-      <c r="A978" s="11" t="s">
+      <c r="A978" s="12" t="s">
         <v>1449</v>
       </c>
-      <c r="B978" s="11" t="s">
+      <c r="B978" s="12" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="979" ht="17.55" spans="1:2">
-      <c r="A979" s="10" t="s">
+      <c r="A979" s="11" t="s">
         <v>1451</v>
       </c>
-      <c r="B979" s="10" t="s">
+      <c r="B979" s="11" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="980" ht="17.55" spans="1:2">
-      <c r="A980" s="11" t="s">
+      <c r="A980" s="12" t="s">
         <v>1452</v>
       </c>
-      <c r="B980" s="11" t="s">
+      <c r="B980" s="12" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="981" ht="17.55" spans="1:2">
-      <c r="A981" s="10" t="s">
+      <c r="A981" s="11" t="s">
         <v>1454</v>
       </c>
-      <c r="B981" s="10" t="s">
+      <c r="B981" s="11" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="982" ht="17.55" spans="1:2">
-      <c r="A982" s="11" t="s">
+      <c r="A982" s="12" t="s">
         <v>1455</v>
       </c>
-      <c r="B982" s="11" t="s">
+      <c r="B982" s="12" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="983" ht="17.55" spans="1:2">
-      <c r="A983" s="10" t="s">
+      <c r="A983" s="11" t="s">
         <v>1457</v>
       </c>
-      <c r="B983" s="10" t="s">
+      <c r="B983" s="11" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="984" ht="17.55" spans="1:2">
-      <c r="A984" s="11" t="s">
+      <c r="A984" s="12" t="s">
         <v>1458</v>
       </c>
-      <c r="B984" s="11" t="s">
+      <c r="B984" s="12" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="985" ht="17.55" spans="1:2">
-      <c r="A985" s="10" t="s">
+      <c r="A985" s="11" t="s">
         <v>1460</v>
       </c>
-      <c r="B985" s="10" t="s">
+      <c r="B985" s="11" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="986" ht="17.55" spans="1:2">
-      <c r="A986" s="11" t="s">
+      <c r="A986" s="12" t="s">
         <v>1461</v>
       </c>
-      <c r="B986" s="11" t="s">
+      <c r="B986" s="12" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="987" ht="17.55" spans="1:2">
-      <c r="A987" s="10" t="s">
+      <c r="A987" s="11" t="s">
         <v>1463</v>
       </c>
-      <c r="B987" s="10" t="s">
+      <c r="B987" s="11" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="988" ht="17.55" spans="1:2">
-      <c r="A988" s="11" t="s">
+      <c r="A988" s="12" t="s">
         <v>1464</v>
       </c>
-      <c r="B988" s="11" t="s">
+      <c r="B988" s="12" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="989" ht="17.55" spans="1:2">
-      <c r="A989" s="10" t="s">
+      <c r="A989" s="11" t="s">
         <v>1466</v>
       </c>
-      <c r="B989" s="10" t="s">
+      <c r="B989" s="11" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="990" ht="17.55" spans="1:2">
-      <c r="A990" s="11" t="s">
+      <c r="A990" s="12" t="s">
         <v>1467</v>
       </c>
-      <c r="B990" s="11" t="s">
+      <c r="B990" s="12" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="991" ht="17.55" spans="1:2">
-      <c r="A991" s="10" t="s">
+      <c r="A991" s="11" t="s">
         <v>1469</v>
       </c>
-      <c r="B991" s="10" t="s">
+      <c r="B991" s="11" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="992" ht="17.55" spans="1:2">
-      <c r="A992" s="11" t="s">
+      <c r="A992" s="12" t="s">
         <v>1470</v>
       </c>
-      <c r="B992" s="11" t="s">
+      <c r="B992" s="12" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="993" ht="17.55" spans="1:2">
-      <c r="A993" s="10" t="s">
+      <c r="A993" s="11" t="s">
         <v>1472</v>
       </c>
-      <c r="B993" s="10" t="s">
+      <c r="B993" s="11" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="994" ht="17.55" spans="1:2">
-      <c r="A994" s="11" t="s">
+      <c r="A994" s="12" t="s">
         <v>1473</v>
       </c>
-      <c r="B994" s="11" t="s">
+      <c r="B994" s="12" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="995" ht="17.55" spans="1:2">
-      <c r="A995" s="10" t="s">
+      <c r="A995" s="11" t="s">
         <v>1475</v>
       </c>
-      <c r="B995" s="10" t="s">
+      <c r="B995" s="11" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="996" ht="17.55" spans="1:2">
-      <c r="A996" s="11" t="s">
+      <c r="A996" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="B996" s="11" t="s">
+      <c r="B996" s="12" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="997" ht="32.75" spans="1:2">
-      <c r="A997" s="10" t="s">
+      <c r="A997" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="B997" s="10" t="s">
+      <c r="B997" s="11" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="998" ht="17.55" spans="1:2">
-      <c r="A998" s="11" t="s">
+      <c r="A998" s="12" t="s">
         <v>1479</v>
       </c>
-      <c r="B998" s="11" t="s">
+      <c r="B998" s="12" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="999" ht="17.55" spans="1:2">
-      <c r="A999" s="10" t="s">
+      <c r="A999" s="11" t="s">
         <v>1481</v>
       </c>
-      <c r="B999" s="10" t="s">
+      <c r="B999" s="11" t="s">
         <v>1481</v>
       </c>
     </row>
     <row r="1000" ht="17.55" spans="1:2">
-      <c r="A1000" s="11" t="s">
+      <c r="A1000" s="12" t="s">
         <v>1482</v>
       </c>
-      <c r="B1000" s="11" t="s">
+      <c r="B1000" s="12" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="1001" ht="17.55" spans="1:2">
-      <c r="A1001" s="10" t="s">
+      <c r="A1001" s="11" t="s">
         <v>1484</v>
       </c>
-      <c r="B1001" s="10" t="s">
+      <c r="B1001" s="11" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="1002" ht="17.55" spans="1:2">
-      <c r="A1002" s="11" t="s">
+      <c r="A1002" s="12" t="s">
         <v>1485</v>
       </c>
-      <c r="B1002" s="11" t="s">
+      <c r="B1002" s="12" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="1003" ht="17.55" spans="1:2">
-      <c r="A1003" s="10" t="s">
+      <c r="A1003" s="11" t="s">
         <v>1487</v>
       </c>
-      <c r="B1003" s="10" t="s">
+      <c r="B1003" s="11" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="1004" ht="17.55" spans="1:2">
-      <c r="A1004" s="11" t="s">
+      <c r="A1004" s="12" t="s">
         <v>1488</v>
       </c>
-      <c r="B1004" s="11" t="s">
+      <c r="B1004" s="12" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="1005" ht="17.55" spans="1:2">
-      <c r="A1005" s="10" t="s">
+      <c r="A1005" s="11" t="s">
         <v>1490</v>
       </c>
-      <c r="B1005" s="10" t="s">
+      <c r="B1005" s="11" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="1006" ht="17.55" spans="1:2">
-      <c r="A1006" s="11" t="s">
+      <c r="A1006" s="12" t="s">
         <v>1491</v>
       </c>
-      <c r="B1006" s="11" t="s">
+      <c r="B1006" s="12" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="1007" ht="17.55" spans="1:2">
-      <c r="A1007" s="10" t="s">
+      <c r="A1007" s="11" t="s">
         <v>1493</v>
       </c>
-      <c r="B1007" s="10" t="s">
+      <c r="B1007" s="11" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="1008" ht="17.55" spans="1:2">
-      <c r="A1008" s="11" t="s">
+      <c r="A1008" s="12" t="s">
         <v>1494</v>
       </c>
-      <c r="B1008" s="11" t="s">
+      <c r="B1008" s="12" t="s">
         <v>1495</v>
       </c>
     </row>
     <row r="1009" ht="17.55" spans="1:2">
-      <c r="A1009" s="10" t="s">
+      <c r="A1009" s="11" t="s">
         <v>1496</v>
       </c>
-      <c r="B1009" s="10" t="s">
+      <c r="B1009" s="11" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="1010" ht="17.55" spans="1:2">
-      <c r="A1010" s="11" t="s">
+      <c r="A1010" s="12" t="s">
         <v>1497</v>
       </c>
-      <c r="B1010" s="11" t="s">
+      <c r="B1010" s="12" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="1011" ht="17.55" spans="1:2">
-      <c r="A1011" s="10" t="s">
+      <c r="A1011" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="B1011" s="10" t="s">
+      <c r="B1011" s="11" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="1012" ht="17.55" spans="1:2">
-      <c r="A1012" s="11" t="s">
+      <c r="A1012" s="12" t="s">
         <v>1500</v>
       </c>
-      <c r="B1012" s="11" t="s">
+      <c r="B1012" s="12" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="1013" ht="17.55" spans="1:2">
-      <c r="A1013" s="10" t="s">
+      <c r="A1013" s="11" t="s">
         <v>1502</v>
       </c>
-      <c r="B1013" s="10" t="s">
+      <c r="B1013" s="11" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="1014" ht="17.55" spans="1:2">
-      <c r="A1014" s="11" t="s">
+      <c r="A1014" s="12" t="s">
         <v>1503</v>
       </c>
-      <c r="B1014" s="11" t="s">
+      <c r="B1014" s="12" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="1015" ht="17.55" spans="1:2">
-      <c r="A1015" s="10" t="s">
+      <c r="A1015" s="11" t="s">
         <v>1505</v>
       </c>
-      <c r="B1015" s="10" t="s">
+      <c r="B1015" s="11" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="1016" ht="17.55" spans="1:2">
-      <c r="A1016" s="11" t="s">
+      <c r="A1016" s="12" t="s">
         <v>1506</v>
       </c>
-      <c r="B1016" s="11" t="s">
+      <c r="B1016" s="12" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="1017" ht="17.55" spans="1:2">
-      <c r="A1017" s="10" t="s">
+      <c r="A1017" s="11" t="s">
         <v>1508</v>
       </c>
-      <c r="B1017" s="10" t="s">
+      <c r="B1017" s="11" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="1018" ht="17.55" spans="1:2">
-      <c r="A1018" s="11" t="s">
+      <c r="A1018" s="12" t="s">
         <v>1509</v>
       </c>
-      <c r="B1018" s="11" t="s">
+      <c r="B1018" s="12" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="1019" ht="17.55" spans="1:2">
-      <c r="A1019" s="10" t="s">
+      <c r="A1019" s="11" t="s">
         <v>1511</v>
       </c>
-      <c r="B1019" s="10" t="s">
+      <c r="B1019" s="11" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="1020" ht="17.55" spans="1:2">
-      <c r="A1020" s="11" t="s">
+      <c r="A1020" s="12" t="s">
         <v>1512</v>
       </c>
-      <c r="B1020" s="11" t="s">
+      <c r="B1020" s="12" t="s">
         <v>1513</v>
       </c>
     </row>
     <row r="1021" ht="17.55" spans="1:2">
-      <c r="A1021" s="10" t="s">
+      <c r="A1021" s="11" t="s">
         <v>1514</v>
       </c>
-      <c r="B1021" s="10" t="s">
+      <c r="B1021" s="11" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="1022" ht="17.55" spans="1:2">
-      <c r="A1022" s="11" t="s">
+      <c r="A1022" s="12" t="s">
         <v>1515</v>
       </c>
-      <c r="B1022" s="11" t="s">
+      <c r="B1022" s="12" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="1023" ht="17.55" spans="1:2">
-      <c r="A1023" s="10" t="s">
+      <c r="A1023" s="11" t="s">
         <v>1517</v>
       </c>
-      <c r="B1023" s="10" t="s">
+      <c r="B1023" s="11" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="1024" ht="17.55" spans="1:2">
-      <c r="A1024" s="11" t="s">
+      <c r="A1024" s="12" t="s">
         <v>1518</v>
       </c>
-      <c r="B1024" s="11" t="s">
+      <c r="B1024" s="12" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="1025" ht="17.55" spans="1:2">
-      <c r="A1025" s="10" t="s">
+      <c r="A1025" s="11" t="s">
         <v>1520</v>
       </c>
-      <c r="B1025" s="10" t="s">
+      <c r="B1025" s="11" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="1026" ht="17.55" spans="1:2">
-      <c r="A1026" s="11" t="s">
+      <c r="A1026" s="12" t="s">
         <v>1521</v>
       </c>
-      <c r="B1026" s="11" t="s">
+      <c r="B1026" s="12" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -22839,7 +22842,7 @@
     <hyperlink ref="B31" r:id="rId16" display="Taoist Ching Chung Primary School (Wu King Estate)" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=329&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=17&amp;sort_id=-1"/>
     <hyperlink ref="B32" r:id="rId16" display="道教青松小學（湖景邨）" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=329&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=17&amp;sort_id=-1"/>
     <hyperlink ref="B33" r:id="rId17" display="Toi Shan Association Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=344&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=17&amp;sort_id=-1"/>
-    <hyperlink ref="B34" r:id="rId17" display="台山商會學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=344&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=17&amp;sort_id=-1"/>
+    <hyperlink ref="B34" r:id="rId17" display="臺山商會學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=344&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=17&amp;sort_id=-1"/>
     <hyperlink ref="B35" r:id="rId18" display="Tuen Mun Government Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=345&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=17&amp;sort_id=-1"/>
     <hyperlink ref="B36" r:id="rId18" display="屯門官立小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=345&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=17&amp;sort_id=-1"/>
     <hyperlink ref="B37" r:id="rId19" display="Yan Chai Hospital Law Chan Chor Si Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=361&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=17&amp;sort_id=-1"/>
@@ -22889,7 +22892,7 @@
     <hyperlink ref="B81" r:id="rId41" display="Christian Pui Yan Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=473&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B82" r:id="rId41" display="基督教培恩小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=473&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B83" r:id="rId42" display="C.P.C. Yao Dao Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=467&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
-    <hyperlink ref="B84" r:id="rId42" display="金巴崙長老會耀道小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=467&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
+    <hyperlink ref="B84" r:id="rId42" display="金巴侖長老會耀道小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=467&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B85" r:id="rId43" display="HKFYG Lee Shau Kee Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=471&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B86" r:id="rId43" display="香港青年協會李兆基小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=471&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B87" r:id="rId44" display="Ho Ming Primary School (Sponsored by Sik Sik Yuen)" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=472&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
@@ -22975,7 +22978,7 @@
     <hyperlink ref="B167" r:id="rId84" display="ELCHK Lutheran School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=543&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B168" r:id="rId84" display="基督教香港信義會啟信學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=543&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B169" r:id="rId85" display="Gigamind English Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=504&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
-    <hyperlink ref="B170" r:id="rId85" display="激活英文小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=504&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
+    <hyperlink ref="B170" r:id="rId85" display="啟動英文小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=504&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B171" r:id="rId86" display="W F Joseph Lee Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=492&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B172" r:id="rId86" display="和富慈善基金李宗德小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=492&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
     <hyperlink ref="B173" r:id="rId87" display="Zenith English Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=542&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=18&amp;sort_id=-1"/>
@@ -23145,13 +23148,13 @@
     <hyperlink ref="B337" r:id="rId169" display="Kowloon City Baptist Church Hay Nien (Yan Ping) Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=319&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B338" r:id="rId169" display="九龍城浸信會禧年（恩平）小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=319&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B339" r:id="rId170" display="P.L.K. Dr. Jimmy Wong Chi-Ho (Tin Sum Valley) Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=288&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
-    <hyperlink ref="B340" r:id="rId170" display="保良局王賜豪（田心谷）小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=288&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
+    <hyperlink ref="B340" r:id="rId170" display="保良局王賜豪（田心穀）小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=288&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B341" r:id="rId171" display="Shatin Government Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=294&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B342" r:id="rId171" display="沙田官立小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=294&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B343" r:id="rId172" display="TWGHs Sin Chu Wan Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=295&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B344" r:id="rId172" display="東華三院冼次雲小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=295&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B345" r:id="rId173" display="Christian Alliance Toi Shan H. C. Chan Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=303&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
-    <hyperlink ref="B346" r:id="rId173" display="香港九龍塘基督教中華宣道會台山陳元喜小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=303&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
+    <hyperlink ref="B346" r:id="rId173" display="香港九龍塘基督教中華宣道會臺山陳元喜小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=303&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B347" r:id="rId174" display="ELCHK Ma On Shan Lutheran Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=298&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B348" r:id="rId174" display="基督教香港信義會馬鞍山信義學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=298&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B349" r:id="rId175" display="H.K.T.A. Shun Yeung Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=296&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
@@ -23181,7 +23184,7 @@
     <hyperlink ref="B373" r:id="rId187" display="Dr. Catherine F. Woo Memorial School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=305&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B374" r:id="rId187" display="胡素貞博士紀念學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=305&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B375" r:id="rId188" display="Leung Kui Kau Lutheran Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=308&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
-    <hyperlink ref="B376" r:id="rId188" display="路德會梁鉅鏐小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=308&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
+    <hyperlink ref="B376" r:id="rId188" display="路德會梁巨鏐小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=308&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B377" r:id="rId189" display="L.K.W.F.S.L. Wong Yiu Nam Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=307&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B378" r:id="rId189" display="世界龍岡學校黃耀南小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=307&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="B379" r:id="rId190" display="P.L.K. Siu Hon Sum Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=309&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
@@ -23255,7 +23258,7 @@
     <hyperlink ref="B447" r:id="rId224" display="Pentecostal Gin Mao Sheng Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=187&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=12&amp;sort_id=-1"/>
     <hyperlink ref="B448" r:id="rId224" display="五旬節靳茂生小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=187&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=12&amp;sort_id=-1"/>
     <hyperlink ref="B449" r:id="rId225" display="Pentecostal Yu Leung Fat Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=204&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=12&amp;sort_id=-1"/>
-    <hyperlink ref="B450" r:id="rId225" display="五旬節于良發小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=204&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=12&amp;sort_id=-1"/>
+    <hyperlink ref="B450" r:id="rId225" display="五旬節於良發小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=204&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=12&amp;sort_id=-1"/>
     <hyperlink ref="B451" r:id="rId226" display="Pui Ling School of The Precious Blood" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=212&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=12&amp;sort_id=-1"/>
     <hyperlink ref="B452" r:id="rId226" display="寶血會培靈學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=212&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=12&amp;sort_id=-1"/>
     <hyperlink ref="B453" r:id="rId227" display="S.K.H. Ka Fuk Wing Chun Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=188&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=12&amp;sort_id=-1"/>
@@ -23297,7 +23300,7 @@
     <hyperlink ref="B489" r:id="rId245" display="Fresh Fish Traders' School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=523&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=11&amp;sort_id=-1"/>
     <hyperlink ref="B490" r:id="rId245" display="鮮魚行學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=523&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=11&amp;sort_id=-1"/>
     <hyperlink ref="B491" r:id="rId246" display="Sharon Lutheran School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=527&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=11&amp;sort_id=-1"/>
-    <hyperlink ref="B492" r:id="rId246" display="路德會沙崙學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=527&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=11&amp;sort_id=-1"/>
+    <hyperlink ref="B492" r:id="rId246" display="路德會沙侖學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=527&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=11&amp;sort_id=-1"/>
     <hyperlink ref="B493" r:id="rId247" display="S.K.H. Kei Wing Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=524&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=11&amp;sort_id=-1"/>
     <hyperlink ref="B494" r:id="rId247" display="聖公會基榮小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=524&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=11&amp;sort_id=-1"/>
     <hyperlink ref="B495" r:id="rId248" display="Tai Kok Tsui Catholic Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=525&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=11&amp;sort_id=-1"/>
@@ -23468,7 +23471,7 @@
     <hyperlink ref="B661" r:id="rId331" display="Tseung Kwan O Methodist Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=234&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
     <hyperlink ref="B662" r:id="rId331" display="將軍澳循道衛理小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=234&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
     <hyperlink ref="B663" r:id="rId332" display="TWGHs Wong Yee Jar Jat Memorial Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=237&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
-    <hyperlink ref="B664" r:id="rId332" display="東華三院王余家潔紀念小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=237&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
+    <hyperlink ref="B664" r:id="rId332" display="東華三院王餘家潔紀念小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=237&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
     <hyperlink ref="B665" r:id="rId333" display="Y.C.H. Chan Iu Seng Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=216&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
     <hyperlink ref="B666" r:id="rId333" display="仁濟醫院陳耀星小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=216&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
     <hyperlink ref="B667" r:id="rId334" display="Y.O.T. Tin Ka Ping Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=217&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=8&amp;sort_id=-1"/>
@@ -23492,7 +23495,7 @@
     <hyperlink ref="B685" r:id="rId343" display="Hong Kong Taoist Association Wun Tsuen School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=118&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=7&amp;sort_id=-1"/>
     <hyperlink ref="B686" r:id="rId343" display="香港道教聯合會雲泉學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=118&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=7&amp;sort_id=-1"/>
     <hyperlink ref="B687" r:id="rId344" display="Jordan Valley St. Joseph's Catholic Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=123&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=7&amp;sort_id=-1"/>
-    <hyperlink ref="B688" r:id="rId344" display="佐敦谷聖若瑟天主教小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=123&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=7&amp;sort_id=-1"/>
+    <hyperlink ref="B688" r:id="rId344" display="佐敦穀聖若瑟天主教小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=123&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=7&amp;sort_id=-1"/>
     <hyperlink ref="B689" r:id="rId345" display="Kowloon Bay St. John The Baptist Catholic Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=126&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=7&amp;sort_id=-1"/>
     <hyperlink ref="B690" r:id="rId345" display="九龍灣聖若翰天主教小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=126&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=7&amp;sort_id=-1"/>
     <hyperlink ref="B691" r:id="rId346" display="Ping Shek Estate Catholic Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=127&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=7&amp;sort_id=-1"/>
@@ -23570,7 +23573,7 @@
     <hyperlink ref="B763" r:id="rId382" display="Ling To Catholic Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=73&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B764" r:id="rId382" display="天主教領島學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=73&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B765" r:id="rId383" display="Ma Tau Chung Government Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=74&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
-    <hyperlink ref="B766" r:id="rId383" display="馬頭涌官立小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=74&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
+    <hyperlink ref="B766" r:id="rId383" display="馬頭湧官立小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=74&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B767" r:id="rId384" display="Oblate Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=75&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B768" r:id="rId384" display="獻主會小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=75&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B769" r:id="rId385" display="P.L.K. Stanley Ho Sau Nan Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=447&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
@@ -23592,7 +23595,7 @@
     <hyperlink ref="B785" r:id="rId393" display="Holy Angels Canossian School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=106&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B786" r:id="rId393" display="天神嘉諾撒學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=106&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B787" r:id="rId394" display="Ma Tau Chung Government Primary School (Hung Hom Bay)" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=102&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
-    <hyperlink ref="B788" r:id="rId394" display="馬頭涌官立小學（紅磡灣）" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=102&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
+    <hyperlink ref="B788" r:id="rId394" display="馬頭湧官立小學（紅磡灣）" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=102&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B789" r:id="rId395" display="S.K.H. Fung Kei Millennium Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=82&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B790" r:id="rId395" display="聖公會奉基千禧小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=82&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
     <hyperlink ref="B791" r:id="rId396" display="S.K.H. Fung Kei Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=83&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=6&amp;sort_id=-1"/>
@@ -23726,11 +23729,11 @@
     <hyperlink ref="B919" r:id="rId460" display="Mui Wo School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=71&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
     <hyperlink ref="B920" r:id="rId460" display="梅窩學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=71&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
     <hyperlink ref="B921" r:id="rId461" display="P.O.C.A. Wan Ho Kan Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=65&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
-    <hyperlink ref="B922" r:id="rId461" display="寶安商會温浩根小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=65&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
+    <hyperlink ref="B922" r:id="rId461" display="寶安商會溫浩根小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=65&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
     <hyperlink ref="B923" r:id="rId462" display="The Salvation Army Lam Butt Chung Memorial School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=66&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
     <hyperlink ref="B924" r:id="rId462" display="救世軍林拔中紀念學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=66&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
     <hyperlink ref="B925" r:id="rId463" display="Tung Chung Catholic School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=58&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
-    <hyperlink ref="B926" r:id="rId463" display="東涌天主教學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=58&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
+    <hyperlink ref="B926" r:id="rId463" display="東湧天主教學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=58&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
     <hyperlink ref="B927" r:id="rId464" display="Holy Family School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=59&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
     <hyperlink ref="B928" r:id="rId464" display="聖家學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=59&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
     <hyperlink ref="B929" r:id="rId465" display="S.K.H. Wei Lun Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=67&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=3&amp;sort_id=-1"/>
@@ -23790,9 +23793,8 @@
     <hyperlink ref="B983" r:id="rId492" display="Hon Wah College (Primary Section)" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=55&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=2&amp;sort_id=-1"/>
     <hyperlink ref="B984" r:id="rId492" display="漢華中學（小學部）" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=55&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=2&amp;sort_id=-1"/>
     <hyperlink ref="B985" r:id="rId493" display="Kiangsu &amp; Chekiang Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=53&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=2&amp;sort_id=-1"/>
-    <hyperlink ref="B986" r:id="rId493" display="蘇浙小學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=53&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=2&amp;sort_id=-1"/>
     <hyperlink ref="B987" r:id="rId494" display="Bonham Road Government Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=21&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
-    <hyperlink ref="B988" r:id="rId494" display="般咸道官立小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=21&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
+    <hyperlink ref="B988" r:id="rId494" display="般鹹道官立小學" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=21&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
     <hyperlink ref="B989" r:id="rId495" display="Catholic Mission School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=4&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
     <hyperlink ref="B990" r:id="rId495" display="天主教總堂區學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=4&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
     <hyperlink ref="B991" r:id="rId496" display="Central &amp; Western District St. Anthony's School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=7&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
@@ -24204,7 +24206,6 @@
     <hyperlink ref="A373" r:id="rId187" display="Dr. Catherine F. Woo Memorial School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=305&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="A374" r:id="rId187" display="胡素贞博士纪念学校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=305&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="A375" r:id="rId188" display="Leung Kui Kau Lutheran Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=308&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
-    <hyperlink ref="A376" r:id="rId188" display="路德会梁巨鏐小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=308&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="A377" r:id="rId189" display="L.K.W.F.S.L. Wong Yiu Nam Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=307&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="A378" r:id="rId189" display="世界龙冈学校黄耀南小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=307&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
     <hyperlink ref="A379" r:id="rId190" display="P.L.K. Siu Hon Sum Primary School" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=309&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=13&amp;sort_id=-1"/>
@@ -24855,6 +24856,7 @@
     <hyperlink ref="A1024" r:id="rId512" display="圣嘉勒小学" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=23&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
     <hyperlink ref="A1025" r:id="rId513" display="St. Louis School (Primary Section)" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=18&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
     <hyperlink ref="B608" r:id="rId304" display="地利亞英文小學暨幼稚園" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=278&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=9&amp;sort_id=-1"/>
+    <hyperlink ref="B986" r:id="rId493" display="蘇浙小學校" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=53&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=2&amp;sort_id=-1"/>
     <hyperlink ref="A1026" r:id="rId513" display="圣类斯中学（小学部）" tooltip="https://www.chsc.hk/psp2025/sch_detail.php?lang_id=2&amp;sch_id=18&amp;return_page=sch_list.php?lang_id=2&amp;search_mode=&amp;frmMode=pagebreak&amp;district_id=1&amp;sort_id=-1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/common/primary_data/小学名称中英文对照.xlsx
+++ b/backend/common/primary_data/小学名称中英文对照.xlsx
@@ -14581,8 +14581,8 @@
   <sheetPr/>
   <dimension ref="A1:C1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A971" workbookViewId="0">
-      <selection activeCell="B986" sqref="B986"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
